--- a/public/upload/elections/2016/1_23.03.2016-12.04.2016.xlsx
+++ b/public/upload/elections/2016/1_23.03.2016-12.04.2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="450" windowWidth="14940" windowHeight="7215" tabRatio="954" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="450" windowWidth="14940" windowHeight="7215" tabRatio="954" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ფორმა N1" sheetId="44" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ფორმა N3'!$A$1:$E$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ფორმა N4'!$A$1:$E$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'ფორმა N4.1'!$A$1:$E$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'ფორმა N5'!$A$1:$D$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'ფორმა N5'!$A$1:$D$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'ფორმა N7'!$A$1:$E$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'ფორმა N9'!$A$1:$K$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'ფორმა N9.1'!$A$1:$I$35</definedName>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="980">
   <si>
     <t>პრემია</t>
   </si>
@@ -1650,12 +1650,6 @@
   </si>
   <si>
     <t xml:space="preserve">ფორმა N5.4 - სხვა განაცემები ფიზიკურ პირებზე (ხელფასის და პრემიის გარდა) </t>
-  </si>
-  <si>
-    <t>გარე რეკლამის ხარჯი *</t>
-  </si>
-  <si>
-    <t>1.2.8.6</t>
   </si>
   <si>
     <t>* ბილბორდი, ლაით ბოქსი, ქუჩაში დამონტაჟებული ეკრანი, სატრანსპორტო საშუალებებზე განთავსებული რეკლამა და სხვა.</t>
@@ -6021,6 +6015,24 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -6047,24 +6059,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -6712,13 +6706,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>775607</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1318532</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6756,13 +6750,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2086495</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4827200</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7608,7 +7602,7 @@
       <c r="J4" s="292"/>
       <c r="K4" s="292"/>
       <c r="L4" s="299" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="296" customFormat="1">
@@ -7645,7 +7639,7 @@
     </row>
     <row r="7" spans="1:12" s="296" customFormat="1">
       <c r="A7" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B7" s="293"/>
       <c r="C7" s="293"/>
@@ -7683,7 +7677,7 @@
       <c r="G9" s="293"/>
       <c r="H9" s="293"/>
       <c r="I9" s="542" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J9" s="543"/>
       <c r="K9" s="544"/>
@@ -7697,16 +7691,16 @@
         <v>130</v>
       </c>
       <c r="C10" s="317" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D10" s="318" t="s">
         <v>270</v>
       </c>
       <c r="E10" s="319" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F10" s="320" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G10" s="321" t="s">
         <v>217</v>
@@ -7715,7 +7709,7 @@
         <v>214</v>
       </c>
       <c r="I10" s="323" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J10" s="324" t="s">
         <v>267</v>
@@ -7770,25 +7764,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="475" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C12" s="476" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D12" s="477">
         <v>12000</v>
       </c>
       <c r="E12" s="379" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F12" s="379" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G12" s="379" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H12" s="379" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I12" s="333"/>
       <c r="J12" s="333"/>
@@ -7800,25 +7794,25 @@
         <v>2</v>
       </c>
       <c r="B13" s="475" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C13" s="476" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D13" s="509">
         <v>10000</v>
       </c>
       <c r="E13" s="379" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F13" s="478" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G13" s="379" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H13" s="379" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I13" s="329"/>
       <c r="J13" s="333"/>
@@ -7830,25 +7824,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="475" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C14" s="476" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D14" s="510">
         <v>8000</v>
       </c>
       <c r="E14" s="379" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F14" s="478" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G14" s="379" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H14" s="379" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I14" s="329"/>
       <c r="J14" s="329"/>
@@ -7860,25 +7854,25 @@
         <v>4</v>
       </c>
       <c r="B15" s="475" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C15" s="476" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D15" s="479">
         <v>13000</v>
       </c>
       <c r="E15" s="379" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F15" s="478" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G15" s="379" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H15" s="379" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I15" s="332"/>
       <c r="J15" s="330"/>
@@ -7890,25 +7884,25 @@
         <v>5</v>
       </c>
       <c r="B16" s="475" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C16" s="476" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D16" s="500">
         <v>15000</v>
       </c>
       <c r="E16" s="379" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F16" s="508" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G16" s="379" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H16" s="379" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I16" s="501"/>
       <c r="J16" s="333"/>
@@ -7920,25 +7914,25 @@
         <v>6</v>
       </c>
       <c r="B17" s="475" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C17" s="476" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D17" s="507">
         <v>7000</v>
       </c>
       <c r="E17" s="379" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F17" s="506" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G17" s="379" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H17" s="379" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I17" s="333"/>
       <c r="J17" s="502"/>
@@ -7950,25 +7944,25 @@
         <v>7</v>
       </c>
       <c r="B18" s="505" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C18" s="476" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D18" s="507">
         <v>9000</v>
       </c>
       <c r="E18" s="379" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F18" s="506" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G18" s="379" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H18" s="379" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I18" s="333"/>
       <c r="J18" s="502"/>
@@ -8079,7 +8073,7 @@
     </row>
     <row r="26" spans="1:12" s="345" customFormat="1" ht="12.75">
       <c r="A26" s="545" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B26" s="545"/>
       <c r="C26" s="545"/>
@@ -8109,7 +8103,7 @@
     </row>
     <row r="28" spans="1:12" s="296" customFormat="1">
       <c r="A28" s="545" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B28" s="545"/>
       <c r="C28" s="545"/>
@@ -8139,7 +8133,7 @@
     </row>
     <row r="30" spans="1:12" s="296" customFormat="1">
       <c r="A30" s="545" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B30" s="545"/>
       <c r="C30" s="545"/>
@@ -8250,7 +8244,7 @@
       <c r="F37" s="284"/>
       <c r="G37" s="285"/>
       <c r="H37" s="540" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I37" s="350"/>
       <c r="J37" s="285"/>
@@ -8374,7 +8368,7 @@
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
       <c r="G2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H2" s="548"/>
     </row>
@@ -8403,7 +8397,7 @@
     </row>
     <row r="5" spans="1:8" ht="15">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -8919,7 +8913,7 @@
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
       <c r="G2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H2" s="548"/>
     </row>
@@ -8948,7 +8942,7 @@
     </row>
     <row r="5" spans="1:10" ht="15">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -9462,7 +9456,7 @@
   <sheetData>
     <row r="2" spans="1:12" ht="15">
       <c r="A2" s="555" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B2" s="555"/>
       <c r="C2" s="555"/>
@@ -9492,7 +9486,7 @@
       <c r="I3" s="76"/>
       <c r="J3" s="274"/>
       <c r="K3" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="L3" s="548"/>
     </row>
@@ -9512,7 +9506,7 @@
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="100" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
@@ -9528,7 +9522,7 @@
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B6" s="79"/>
       <c r="C6" s="79"/>
@@ -9574,34 +9568,34 @@
         <v>64</v>
       </c>
       <c r="B9" s="89" t="s">
+        <v>444</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" s="89" t="s">
         <v>446</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="E9" s="89" t="s">
         <v>447</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="F9" s="89" t="s">
         <v>448</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="G9" s="89" t="s">
         <v>449</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="H9" s="89" t="s">
         <v>450</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="I9" s="89" t="s">
         <v>451</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="J9" s="89" t="s">
         <v>452</v>
       </c>
-      <c r="I9" s="89" t="s">
+      <c r="K9" s="89" t="s">
         <v>453</v>
-      </c>
-      <c r="J9" s="89" t="s">
-        <v>454</v>
-      </c>
-      <c r="K9" s="89" t="s">
-        <v>455</v>
       </c>
       <c r="L9" s="89" t="s">
         <v>308</v>
@@ -9714,7 +9708,7 @@
       <c r="H16" s="86"/>
       <c r="I16" s="86"/>
       <c r="J16" s="86" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K16" s="444">
         <f>SUM(K10:K15)</f>
@@ -9737,7 +9731,7 @@
     </row>
     <row r="18" spans="1:11" ht="15">
       <c r="A18" s="228" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B18" s="228"/>
       <c r="C18" s="227"/>
@@ -9752,7 +9746,7 @@
     </row>
     <row r="19" spans="1:11" ht="15">
       <c r="A19" s="228" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B19" s="228"/>
       <c r="C19" s="227"/>
@@ -9767,7 +9761,7 @@
     </row>
     <row r="20" spans="1:11" ht="15">
       <c r="A20" s="214" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B20" s="228"/>
       <c r="C20" s="183"/>
@@ -9782,7 +9776,7 @@
     </row>
     <row r="21" spans="1:11" ht="15">
       <c r="A21" s="214" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B21" s="228"/>
       <c r="C21" s="183"/>
@@ -9872,7 +9866,7 @@
       <c r="E27" s="281"/>
       <c r="F27" s="282"/>
       <c r="G27" s="558" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H27" s="558"/>
       <c r="I27" s="558"/>
@@ -9970,7 +9964,7 @@
       <c r="B2" s="120"/>
       <c r="C2" s="76"/>
       <c r="D2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E2" s="548"/>
     </row>
@@ -10005,7 +9999,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="119"/>
       <c r="C5" s="119"/>
@@ -10059,19 +10053,19 @@
       <c r="D9" s="156"/>
       <c r="E9" s="105"/>
       <c r="J9" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AD9" s="2">
         <v>19.11</v>
@@ -12145,7 +12139,7 @@
       <c r="G2" s="75"/>
       <c r="H2" s="75"/>
       <c r="I2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J2" s="548"/>
       <c r="K2" s="105"/>
@@ -12181,7 +12175,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="236"/>
       <c r="C5" s="236"/>
@@ -12291,16 +12285,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="353" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" s="354" t="s">
+        <v>470</v>
+      </c>
+      <c r="D10" s="355" t="s">
         <v>471</v>
       </c>
-      <c r="C10" s="354" t="s">
+      <c r="E10" s="356" t="s">
         <v>472</v>
-      </c>
-      <c r="D10" s="355" t="s">
-        <v>473</v>
-      </c>
-      <c r="E10" s="356" t="s">
-        <v>474</v>
       </c>
       <c r="F10" s="158">
         <v>293526.90999999997</v>
@@ -12323,16 +12317,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="357" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C11" s="358" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D11" s="359" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E11" s="360" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F11" s="158"/>
       <c r="G11" s="158"/>
@@ -12349,16 +12343,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="357" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C12" s="358" t="s">
+        <v>473</v>
+      </c>
+      <c r="D12" s="359" t="s">
         <v>475</v>
       </c>
-      <c r="D12" s="359" t="s">
-        <v>477</v>
-      </c>
       <c r="E12" s="360" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F12" s="362">
         <v>820</v>
@@ -12586,7 +12580,7 @@
       <c r="E2" s="75"/>
       <c r="F2" s="75"/>
       <c r="G2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H2" s="548"/>
     </row>
@@ -12615,7 +12609,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="221"/>
       <c r="C5" s="221"/>
@@ -13269,7 +13263,7 @@
       <c r="G2" s="138"/>
       <c r="H2" s="138"/>
       <c r="I2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J2" s="548"/>
       <c r="K2" s="142"/>
@@ -13306,7 +13300,7 @@
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="119"/>
       <c r="C5" s="119"/>
@@ -14353,7 +14347,7 @@
       <c r="F2" s="136"/>
       <c r="G2" s="144"/>
       <c r="H2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="I2" s="548"/>
       <c r="J2" s="65"/>
@@ -14393,7 +14387,7 @@
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="119"/>
       <c r="C5" s="119"/>
@@ -14882,7 +14876,7 @@
       <c r="G2" s="136"/>
       <c r="H2" s="142"/>
       <c r="I2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J2" s="548"/>
     </row>
@@ -14916,7 +14910,7 @@
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="119"/>
       <c r="C5" s="119"/>
@@ -15005,25 +14999,25 @@
         <v>1</v>
       </c>
       <c r="B9" s="375" t="s">
+        <v>663</v>
+      </c>
+      <c r="C9" s="376" t="s">
+        <v>664</v>
+      </c>
+      <c r="D9" s="377" t="s">
         <v>665</v>
-      </c>
-      <c r="C9" s="376" t="s">
-        <v>666</v>
-      </c>
-      <c r="D9" s="377" t="s">
-        <v>667</v>
       </c>
       <c r="E9" s="377">
         <v>2012</v>
       </c>
       <c r="F9" s="377" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G9" s="377">
         <v>66066.13</v>
       </c>
       <c r="H9" s="378" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="150"/>
@@ -15446,7 +15440,7 @@
       <c r="E2" s="194"/>
       <c r="F2" s="194"/>
       <c r="G2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H2" s="548"/>
     </row>
@@ -15474,7 +15468,7 @@
     </row>
     <row r="5" spans="1:8" s="195" customFormat="1">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="198"/>
       <c r="C5" s="198"/>
@@ -15772,7 +15766,7 @@
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D2" s="548"/>
       <c r="E2" s="108"/>
@@ -15795,7 +15789,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -15832,19 +15826,19 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="J8" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="Q8" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="W8" s="6" t="s">
         <v>876</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="7" customFormat="1" ht="16.5" customHeight="1">
@@ -16974,10 +16968,10 @@
       <c r="H2" s="136"/>
       <c r="I2" s="136"/>
       <c r="J2" s="136"/>
-      <c r="K2" s="571" t="s">
-        <v>981</v>
-      </c>
-      <c r="L2" s="572"/>
+      <c r="K2" s="563" t="s">
+        <v>979</v>
+      </c>
+      <c r="L2" s="564"/>
     </row>
     <row r="3" spans="1:12" ht="15">
       <c r="A3" s="136"/>
@@ -17010,7 +17004,7 @@
     </row>
     <row r="5" spans="1:12" s="184" customFormat="1" ht="15">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -17111,13 +17105,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="492" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C9" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D9" s="493" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E9" s="493">
         <v>156.80000000000001</v>
@@ -17129,10 +17123,10 @@
       <c r="H9" s="492"/>
       <c r="I9" s="492"/>
       <c r="J9" s="493" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K9" s="492" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" customHeight="1">
@@ -17140,13 +17134,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="492" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C10" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D10" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E10" s="511">
         <v>70</v>
@@ -17158,10 +17152,10 @@
       <c r="H10" s="512"/>
       <c r="I10" s="492"/>
       <c r="J10" s="513" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K10" s="492" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" customHeight="1">
@@ -17169,13 +17163,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="492" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C11" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D11" s="493" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E11" s="493">
         <v>106</v>
@@ -17187,10 +17181,10 @@
       <c r="H11" s="492"/>
       <c r="I11" s="492"/>
       <c r="J11" s="514" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K11" s="492" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30">
@@ -17198,13 +17192,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="492" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C12" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D12" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E12" s="511">
         <v>135.69999999999999</v>
@@ -17219,7 +17213,7 @@
         <v>26001002376</v>
       </c>
       <c r="K12" s="492" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" customHeight="1">
@@ -17227,13 +17221,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="492" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C13" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D13" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E13" s="511">
         <v>70</v>
@@ -17248,7 +17242,7 @@
         <v>225063123</v>
       </c>
       <c r="K13" s="492" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1">
@@ -17256,13 +17250,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="492" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C14" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D14" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E14" s="493">
         <v>219</v>
@@ -17274,10 +17268,10 @@
       <c r="H14" s="492"/>
       <c r="I14" s="492"/>
       <c r="J14" s="514" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K14" s="492" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1">
@@ -17285,13 +17279,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="492" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C15" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D15" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E15" s="511">
         <v>100.2</v>
@@ -17303,26 +17297,26 @@
       <c r="H15" s="512"/>
       <c r="I15" s="492"/>
       <c r="J15" s="513" t="s">
+        <v>492</v>
+      </c>
+      <c r="K15" s="492" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="45" customHeight="1">
+      <c r="A16" s="570">
+        <v>8</v>
+      </c>
+      <c r="B16" s="572" t="s">
         <v>494</v>
       </c>
-      <c r="K15" s="492" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="45" customHeight="1">
-      <c r="A16" s="564">
-        <v>8</v>
-      </c>
-      <c r="B16" s="566" t="s">
-        <v>496</v>
-      </c>
       <c r="C16" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D16" s="493" t="s">
-        <v>930</v>
-      </c>
-      <c r="E16" s="573">
+        <v>928</v>
+      </c>
+      <c r="E16" s="565">
         <v>87.1</v>
       </c>
       <c r="F16" s="511">
@@ -17332,22 +17326,22 @@
       <c r="H16" s="512"/>
       <c r="I16" s="492"/>
       <c r="J16" s="513" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K16" s="492" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="60" customHeight="1">
-      <c r="A17" s="565"/>
-      <c r="B17" s="566"/>
+      <c r="A17" s="571"/>
+      <c r="B17" s="572"/>
       <c r="C17" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D17" s="493" t="s">
-        <v>930</v>
-      </c>
-      <c r="E17" s="573"/>
+        <v>928</v>
+      </c>
+      <c r="E17" s="565"/>
       <c r="F17" s="511">
         <v>400</v>
       </c>
@@ -17355,10 +17349,10 @@
       <c r="H17" s="512"/>
       <c r="I17" s="492"/>
       <c r="J17" s="513" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K17" s="492" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="45">
@@ -17366,13 +17360,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="492" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C18" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D18" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E18" s="511">
         <v>110</v>
@@ -17387,23 +17381,23 @@
         <v>47001000294</v>
       </c>
       <c r="K18" s="492" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" customHeight="1">
-      <c r="A19" s="564">
+      <c r="A19" s="570">
         <v>10</v>
       </c>
-      <c r="B19" s="566" t="s">
-        <v>503</v>
+      <c r="B19" s="572" t="s">
+        <v>501</v>
       </c>
       <c r="C19" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D19" s="493" t="s">
-        <v>930</v>
-      </c>
-      <c r="E19" s="573">
+        <v>928</v>
+      </c>
+      <c r="E19" s="565">
         <v>140.9</v>
       </c>
       <c r="F19" s="511">
@@ -17416,19 +17410,19 @@
         <v>62007000585</v>
       </c>
       <c r="K19" s="492" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1">
-      <c r="A20" s="565"/>
-      <c r="B20" s="566"/>
+      <c r="A20" s="571"/>
+      <c r="B20" s="572"/>
       <c r="C20" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D20" s="493" t="s">
-        <v>930</v>
-      </c>
-      <c r="E20" s="573"/>
+        <v>928</v>
+      </c>
+      <c r="E20" s="565"/>
       <c r="F20" s="511">
         <v>250</v>
       </c>
@@ -17436,10 +17430,10 @@
       <c r="H20" s="512"/>
       <c r="I20" s="492"/>
       <c r="J20" s="513" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K20" s="492" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30">
@@ -17447,13 +17441,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="492" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C21" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D21" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E21" s="511">
         <v>100</v>
@@ -17468,7 +17462,7 @@
         <v>230030613</v>
       </c>
       <c r="K21" s="492" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1">
@@ -17476,13 +17470,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="492" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C22" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D22" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E22" s="493">
         <v>126.77</v>
@@ -17491,13 +17485,13 @@
         <v>3409.05</v>
       </c>
       <c r="G22" s="514" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H22" s="492" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I22" s="492" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J22" s="514"/>
       <c r="K22" s="492"/>
@@ -17507,13 +17501,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="492" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C23" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D23" s="493" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E23" s="511">
         <v>46</v>
@@ -17525,10 +17519,10 @@
       <c r="H23" s="512"/>
       <c r="I23" s="492"/>
       <c r="J23" s="513" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K23" s="492" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" customHeight="1">
@@ -17536,13 +17530,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="492" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C24" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D24" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E24" s="511">
         <v>90</v>
@@ -17557,7 +17551,7 @@
         <v>53001007238</v>
       </c>
       <c r="K24" s="492" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="45" customHeight="1">
@@ -17565,13 +17559,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="492" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C25" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D25" s="493" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E25" s="511">
         <v>200.5</v>
@@ -17583,10 +17577,10 @@
       <c r="H25" s="512"/>
       <c r="I25" s="492"/>
       <c r="J25" s="513" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K25" s="492" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="75" customHeight="1">
@@ -17594,13 +17588,13 @@
         <v>16</v>
       </c>
       <c r="B26" s="492" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C26" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D26" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E26" s="511">
         <v>161</v>
@@ -17615,7 +17609,7 @@
         <v>61008000273</v>
       </c>
       <c r="K26" s="492" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30">
@@ -17623,13 +17617,13 @@
         <v>17</v>
       </c>
       <c r="B27" s="492" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C27" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D27" s="493" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E27" s="511">
         <v>72</v>
@@ -17641,10 +17635,10 @@
       <c r="H27" s="512"/>
       <c r="I27" s="492"/>
       <c r="J27" s="513" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K27" s="492" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="45" customHeight="1">
@@ -17652,13 +17646,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="492" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C28" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D28" s="493" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E28" s="511">
         <v>109.86</v>
@@ -17667,13 +17661,13 @@
         <v>2272.6999999999998</v>
       </c>
       <c r="G28" s="515" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H28" s="512" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I28" s="492" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J28" s="515"/>
       <c r="K28" s="492"/>
@@ -17683,13 +17677,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="492" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C29" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D29" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E29" s="511">
         <v>150</v>
@@ -17701,10 +17695,10 @@
       <c r="H29" s="512"/>
       <c r="I29" s="492"/>
       <c r="J29" s="515" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K29" s="492" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="60" customHeight="1">
@@ -17712,13 +17706,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="492" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C30" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D30" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E30" s="493">
         <v>45</v>
@@ -17730,10 +17724,10 @@
       <c r="H30" s="492"/>
       <c r="I30" s="492"/>
       <c r="J30" s="493" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K30" s="492" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="45" customHeight="1">
@@ -17741,13 +17735,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="492" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C31" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D31" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E31" s="511">
         <v>188.9</v>
@@ -17759,10 +17753,10 @@
       <c r="H31" s="512"/>
       <c r="I31" s="492"/>
       <c r="J31" s="515" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K31" s="492" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="45" customHeight="1">
@@ -17770,13 +17764,13 @@
         <v>22</v>
       </c>
       <c r="B32" s="492" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C32" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D32" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E32" s="511">
         <v>60</v>
@@ -17788,10 +17782,10 @@
       <c r="H32" s="512"/>
       <c r="I32" s="492"/>
       <c r="J32" s="515" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K32" s="492" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="60" customHeight="1">
@@ -17799,13 +17793,13 @@
         <v>23</v>
       </c>
       <c r="B33" s="492" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C33" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D33" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E33" s="511">
         <v>190</v>
@@ -17817,10 +17811,10 @@
       <c r="H33" s="512"/>
       <c r="I33" s="492"/>
       <c r="J33" s="515" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K33" s="492" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="60" customHeight="1">
@@ -17828,13 +17822,13 @@
         <v>24</v>
       </c>
       <c r="B34" s="492" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C34" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D34" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E34" s="511">
         <v>50</v>
@@ -17846,64 +17840,64 @@
       <c r="H34" s="512"/>
       <c r="I34" s="492"/>
       <c r="J34" s="515" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K34" s="492" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="60" customHeight="1">
+      <c r="A35" s="570">
+        <v>25</v>
+      </c>
+      <c r="B35" s="572" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="60" customHeight="1">
-      <c r="A35" s="564">
-        <v>25</v>
-      </c>
-      <c r="B35" s="566" t="s">
-        <v>541</v>
-      </c>
       <c r="C35" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D35" s="493" t="s">
-        <v>930</v>
-      </c>
-      <c r="E35" s="574">
+        <v>928</v>
+      </c>
+      <c r="E35" s="566">
         <v>130</v>
       </c>
       <c r="F35" s="493">
         <v>4090.86</v>
       </c>
       <c r="G35" s="514" t="s">
+        <v>540</v>
+      </c>
+      <c r="H35" s="512" t="s">
+        <v>541</v>
+      </c>
+      <c r="I35" s="492" t="s">
         <v>542</v>
-      </c>
-      <c r="H35" s="512" t="s">
-        <v>543</v>
-      </c>
-      <c r="I35" s="492" t="s">
-        <v>544</v>
       </c>
       <c r="J35" s="490"/>
       <c r="K35" s="494"/>
     </row>
     <row r="36" spans="1:11" ht="45" customHeight="1">
-      <c r="A36" s="565"/>
-      <c r="B36" s="566"/>
+      <c r="A36" s="571"/>
+      <c r="B36" s="572"/>
       <c r="C36" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D36" s="493" t="s">
-        <v>930</v>
-      </c>
-      <c r="E36" s="574"/>
+        <v>928</v>
+      </c>
+      <c r="E36" s="566"/>
       <c r="F36" s="493">
         <v>909.08</v>
       </c>
       <c r="G36" s="514" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H36" s="512" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I36" s="492" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J36" s="490"/>
       <c r="K36" s="494"/>
@@ -17913,13 +17907,13 @@
         <v>26</v>
       </c>
       <c r="B37" s="492" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C37" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D37" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E37" s="511">
         <v>82.9</v>
@@ -17928,13 +17922,13 @@
         <v>375</v>
       </c>
       <c r="G37" s="513" t="s">
+        <v>546</v>
+      </c>
+      <c r="H37" s="512" t="s">
+        <v>547</v>
+      </c>
+      <c r="I37" s="492" t="s">
         <v>548</v>
-      </c>
-      <c r="H37" s="512" t="s">
-        <v>549</v>
-      </c>
-      <c r="I37" s="492" t="s">
-        <v>550</v>
       </c>
       <c r="J37" s="490"/>
       <c r="K37" s="494"/>
@@ -17944,13 +17938,13 @@
         <v>27</v>
       </c>
       <c r="B38" s="492" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C38" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D38" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E38" s="511">
         <v>65</v>
@@ -17959,13 +17953,13 @@
         <v>1000</v>
       </c>
       <c r="G38" s="513" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H38" s="512" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I38" s="492" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J38" s="490"/>
       <c r="K38" s="494"/>
@@ -17975,13 +17969,13 @@
         <v>28</v>
       </c>
       <c r="B39" s="492" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C39" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D39" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E39" s="511">
         <v>81.55</v>
@@ -17993,10 +17987,10 @@
         <v>24001004130</v>
       </c>
       <c r="H39" s="512" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I39" s="492" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J39" s="490"/>
       <c r="K39" s="494"/>
@@ -18006,13 +18000,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="492" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C40" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D40" s="493" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E40" s="511">
         <v>75.48</v>
@@ -18021,13 +18015,13 @@
         <v>500</v>
       </c>
       <c r="G40" s="513" t="s">
+        <v>556</v>
+      </c>
+      <c r="H40" s="512" t="s">
+        <v>557</v>
+      </c>
+      <c r="I40" s="492" t="s">
         <v>558</v>
-      </c>
-      <c r="H40" s="512" t="s">
-        <v>559</v>
-      </c>
-      <c r="I40" s="492" t="s">
-        <v>560</v>
       </c>
       <c r="J40" s="490"/>
       <c r="K40" s="494"/>
@@ -18037,13 +18031,13 @@
         <v>30</v>
       </c>
       <c r="B41" s="492" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C41" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D41" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E41" s="511">
         <v>60.8</v>
@@ -18052,13 +18046,13 @@
         <v>375</v>
       </c>
       <c r="G41" s="513" t="s">
+        <v>560</v>
+      </c>
+      <c r="H41" s="512" t="s">
+        <v>561</v>
+      </c>
+      <c r="I41" s="492" t="s">
         <v>562</v>
-      </c>
-      <c r="H41" s="512" t="s">
-        <v>563</v>
-      </c>
-      <c r="I41" s="492" t="s">
-        <v>564</v>
       </c>
       <c r="J41" s="490"/>
       <c r="K41" s="494"/>
@@ -18068,13 +18062,13 @@
         <v>31</v>
       </c>
       <c r="B42" s="492" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C42" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D42" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E42" s="511">
         <v>107</v>
@@ -18086,10 +18080,10 @@
         <v>62005023736</v>
       </c>
       <c r="H42" s="512" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I42" s="492" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J42" s="490"/>
       <c r="K42" s="494"/>
@@ -18099,13 +18093,13 @@
         <v>32</v>
       </c>
       <c r="B43" s="492" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C43" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D43" s="493" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E43" s="511">
         <v>84</v>
@@ -18114,13 +18108,13 @@
         <v>875</v>
       </c>
       <c r="G43" s="513" t="s">
+        <v>567</v>
+      </c>
+      <c r="H43" s="512" t="s">
+        <v>568</v>
+      </c>
+      <c r="I43" s="492" t="s">
         <v>569</v>
-      </c>
-      <c r="H43" s="512" t="s">
-        <v>570</v>
-      </c>
-      <c r="I43" s="492" t="s">
-        <v>571</v>
       </c>
       <c r="J43" s="490"/>
       <c r="K43" s="494"/>
@@ -18130,13 +18124,13 @@
         <v>33</v>
       </c>
       <c r="B44" s="492" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C44" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D44" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E44" s="511">
         <v>223</v>
@@ -18145,13 +18139,13 @@
         <v>450</v>
       </c>
       <c r="G44" s="513" t="s">
+        <v>571</v>
+      </c>
+      <c r="H44" s="512" t="s">
+        <v>572</v>
+      </c>
+      <c r="I44" s="492" t="s">
         <v>573</v>
-      </c>
-      <c r="H44" s="512" t="s">
-        <v>574</v>
-      </c>
-      <c r="I44" s="492" t="s">
-        <v>575</v>
       </c>
       <c r="J44" s="490"/>
       <c r="K44" s="494"/>
@@ -18161,13 +18155,13 @@
         <v>34</v>
       </c>
       <c r="B45" s="492" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C45" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D45" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E45" s="493">
         <v>90</v>
@@ -18176,13 +18170,13 @@
         <v>437.5</v>
       </c>
       <c r="G45" s="514" t="s">
+        <v>575</v>
+      </c>
+      <c r="H45" s="512" t="s">
+        <v>576</v>
+      </c>
+      <c r="I45" s="492" t="s">
         <v>577</v>
-      </c>
-      <c r="H45" s="512" t="s">
-        <v>578</v>
-      </c>
-      <c r="I45" s="492" t="s">
-        <v>579</v>
       </c>
       <c r="J45" s="490"/>
       <c r="K45" s="494"/>
@@ -18192,13 +18186,13 @@
         <v>35</v>
       </c>
       <c r="B46" s="492" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C46" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D46" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E46" s="511">
         <v>155</v>
@@ -18210,10 +18204,10 @@
         <v>25001049879</v>
       </c>
       <c r="H46" s="512" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I46" s="492" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J46" s="490"/>
       <c r="K46" s="494"/>
@@ -18223,13 +18217,13 @@
         <v>36</v>
       </c>
       <c r="B47" s="492" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C47" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D47" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E47" s="511">
         <v>112.5</v>
@@ -18241,10 +18235,10 @@
         <v>61002004053</v>
       </c>
       <c r="H47" s="512" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I47" s="492" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J47" s="490"/>
       <c r="K47" s="494"/>
@@ -18254,13 +18248,13 @@
         <v>37</v>
       </c>
       <c r="B48" s="492" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C48" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D48" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E48" s="511">
         <v>55</v>
@@ -18272,10 +18266,10 @@
         <v>47001003904</v>
       </c>
       <c r="H48" s="512" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I48" s="492" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J48" s="490"/>
       <c r="K48" s="494"/>
@@ -18285,13 +18279,13 @@
         <v>38</v>
       </c>
       <c r="B49" s="492" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C49" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D49" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E49" s="511">
         <v>60</v>
@@ -18303,10 +18297,10 @@
         <v>14001022774</v>
       </c>
       <c r="H49" s="512" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I49" s="492" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J49" s="490"/>
       <c r="K49" s="494"/>
@@ -18316,13 +18310,13 @@
         <v>39</v>
       </c>
       <c r="B50" s="492" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C50" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D50" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E50" s="511">
         <v>136</v>
@@ -18334,10 +18328,10 @@
         <v>38001047179</v>
       </c>
       <c r="H50" s="512" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I50" s="492" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J50" s="490"/>
       <c r="K50" s="494"/>
@@ -18347,13 +18341,13 @@
         <v>40</v>
       </c>
       <c r="B51" s="492" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C51" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D51" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E51" s="511">
         <v>94.1</v>
@@ -18365,10 +18359,10 @@
         <v>54001031206</v>
       </c>
       <c r="H51" s="512" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I51" s="492" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J51" s="490"/>
       <c r="K51" s="494"/>
@@ -18378,13 +18372,13 @@
         <v>41</v>
       </c>
       <c r="B52" s="492" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C52" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D52" s="493" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E52" s="511">
         <v>84.1</v>
@@ -18393,13 +18387,13 @@
         <v>625</v>
       </c>
       <c r="G52" s="513" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H52" s="512" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I52" s="492" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J52" s="490"/>
       <c r="K52" s="494"/>
@@ -18409,13 +18403,13 @@
         <v>42</v>
       </c>
       <c r="B53" s="492" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C53" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D53" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E53" s="511">
         <v>90</v>
@@ -18424,13 +18418,13 @@
         <v>700</v>
       </c>
       <c r="G53" s="513" t="s">
+        <v>599</v>
+      </c>
+      <c r="H53" s="512" t="s">
+        <v>600</v>
+      </c>
+      <c r="I53" s="492" t="s">
         <v>601</v>
-      </c>
-      <c r="H53" s="512" t="s">
-        <v>602</v>
-      </c>
-      <c r="I53" s="492" t="s">
-        <v>603</v>
       </c>
       <c r="J53" s="490"/>
       <c r="K53" s="494"/>
@@ -18440,13 +18434,13 @@
         <v>43</v>
       </c>
       <c r="B54" s="492" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C54" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D54" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E54" s="511">
         <v>110</v>
@@ -18458,10 +18452,10 @@
         <v>3760818</v>
       </c>
       <c r="H54" s="512" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I54" s="492" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J54" s="490"/>
       <c r="K54" s="494"/>
@@ -18471,13 +18465,13 @@
         <v>44</v>
       </c>
       <c r="B55" s="492" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C55" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D55" s="493" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E55" s="511">
         <v>130</v>
@@ -18486,13 +18480,13 @@
         <v>500</v>
       </c>
       <c r="G55" s="515" t="s">
+        <v>606</v>
+      </c>
+      <c r="H55" s="512" t="s">
+        <v>607</v>
+      </c>
+      <c r="I55" s="492" t="s">
         <v>608</v>
-      </c>
-      <c r="H55" s="512" t="s">
-        <v>609</v>
-      </c>
-      <c r="I55" s="492" t="s">
-        <v>610</v>
       </c>
       <c r="J55" s="490"/>
       <c r="K55" s="494"/>
@@ -18502,13 +18496,13 @@
         <v>45</v>
       </c>
       <c r="B56" s="492" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C56" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D56" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E56" s="511">
         <v>54</v>
@@ -18520,10 +18514,10 @@
         <v>49001006224</v>
       </c>
       <c r="H56" s="512" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I56" s="492" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J56" s="490"/>
       <c r="K56" s="494"/>
@@ -18533,13 +18527,13 @@
         <v>46</v>
       </c>
       <c r="B57" s="492" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C57" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D57" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E57" s="511">
         <v>80.3</v>
@@ -18551,10 +18545,10 @@
         <v>33001022458</v>
       </c>
       <c r="H57" s="512" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I57" s="492" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J57" s="490"/>
       <c r="K57" s="494"/>
@@ -18564,13 +18558,13 @@
         <v>47</v>
       </c>
       <c r="B58" s="492" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C58" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D58" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E58" s="511">
         <v>60</v>
@@ -18582,10 +18576,10 @@
         <v>29001003140</v>
       </c>
       <c r="H58" s="512" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I58" s="492" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J58" s="490"/>
       <c r="K58" s="494"/>
@@ -18595,13 +18589,13 @@
         <v>48</v>
       </c>
       <c r="B59" s="492" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C59" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D59" s="493" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E59" s="511">
         <v>50</v>
@@ -18610,13 +18604,13 @@
         <v>350</v>
       </c>
       <c r="G59" s="515" t="s">
+        <v>619</v>
+      </c>
+      <c r="H59" s="512" t="s">
+        <v>620</v>
+      </c>
+      <c r="I59" s="492" t="s">
         <v>621</v>
-      </c>
-      <c r="H59" s="512" t="s">
-        <v>622</v>
-      </c>
-      <c r="I59" s="492" t="s">
-        <v>623</v>
       </c>
       <c r="J59" s="490"/>
       <c r="K59" s="494"/>
@@ -18626,13 +18620,13 @@
         <v>49</v>
       </c>
       <c r="B60" s="492" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C60" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D60" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E60" s="511">
         <v>73</v>
@@ -18641,13 +18635,13 @@
         <v>500</v>
       </c>
       <c r="G60" s="513" t="s">
+        <v>623</v>
+      </c>
+      <c r="H60" s="512" t="s">
+        <v>624</v>
+      </c>
+      <c r="I60" s="492" t="s">
         <v>625</v>
-      </c>
-      <c r="H60" s="512" t="s">
-        <v>626</v>
-      </c>
-      <c r="I60" s="492" t="s">
-        <v>627</v>
       </c>
       <c r="J60" s="490"/>
       <c r="K60" s="494"/>
@@ -18657,13 +18651,13 @@
         <v>50</v>
       </c>
       <c r="B61" s="492" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C61" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D61" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E61" s="511">
         <v>169.7</v>
@@ -18672,13 +18666,13 @@
         <v>625</v>
       </c>
       <c r="G61" s="515" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H61" s="512" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I61" s="492" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J61" s="490"/>
       <c r="K61" s="494"/>
@@ -18688,13 +18682,13 @@
         <v>51</v>
       </c>
       <c r="B62" s="492" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C62" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D62" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E62" s="493">
         <v>112.8</v>
@@ -18703,13 +18697,13 @@
         <v>2272.6999999999998</v>
       </c>
       <c r="G62" s="493" t="s">
+        <v>630</v>
+      </c>
+      <c r="H62" s="512" t="s">
+        <v>631</v>
+      </c>
+      <c r="I62" s="492" t="s">
         <v>632</v>
-      </c>
-      <c r="H62" s="512" t="s">
-        <v>633</v>
-      </c>
-      <c r="I62" s="492" t="s">
-        <v>634</v>
       </c>
       <c r="J62" s="490"/>
       <c r="K62" s="494"/>
@@ -18719,13 +18713,13 @@
         <v>52</v>
       </c>
       <c r="B63" s="492" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C63" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D63" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E63" s="511">
         <v>180</v>
@@ -18734,13 +18728,13 @@
         <v>562.5</v>
       </c>
       <c r="G63" s="515" t="s">
+        <v>637</v>
+      </c>
+      <c r="H63" s="512" t="s">
+        <v>638</v>
+      </c>
+      <c r="I63" s="492" t="s">
         <v>639</v>
-      </c>
-      <c r="H63" s="512" t="s">
-        <v>640</v>
-      </c>
-      <c r="I63" s="492" t="s">
-        <v>641</v>
       </c>
       <c r="J63" s="490"/>
       <c r="K63" s="494"/>
@@ -18750,13 +18744,13 @@
         <v>53</v>
       </c>
       <c r="B64" s="492" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C64" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D64" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E64" s="511">
         <v>99</v>
@@ -18765,13 +18759,13 @@
         <v>800</v>
       </c>
       <c r="G64" s="515" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H64" s="512" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I64" s="492" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J64" s="490"/>
       <c r="K64" s="494"/>
@@ -18781,13 +18775,13 @@
         <v>54</v>
       </c>
       <c r="B65" s="492" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C65" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D65" s="493" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E65" s="511">
         <v>90</v>
@@ -18796,13 +18790,13 @@
         <v>562.5</v>
       </c>
       <c r="G65" s="515" t="s">
+        <v>644</v>
+      </c>
+      <c r="H65" s="512" t="s">
+        <v>645</v>
+      </c>
+      <c r="I65" s="492" t="s">
         <v>646</v>
-      </c>
-      <c r="H65" s="512" t="s">
-        <v>647</v>
-      </c>
-      <c r="I65" s="492" t="s">
-        <v>648</v>
       </c>
       <c r="J65" s="490"/>
       <c r="K65" s="494"/>
@@ -18812,13 +18806,13 @@
         <v>55</v>
       </c>
       <c r="B66" s="492" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C66" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D66" s="493" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E66" s="511">
         <v>76</v>
@@ -18827,13 +18821,13 @@
         <v>500</v>
       </c>
       <c r="G66" s="515" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H66" s="512" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I66" s="492" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J66" s="490"/>
       <c r="K66" s="494"/>
@@ -18843,28 +18837,28 @@
         <v>56</v>
       </c>
       <c r="B67" s="516" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C67" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D67" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E67" s="511">
         <v>64.3</v>
       </c>
       <c r="F67" s="493" t="s">
+        <v>649</v>
+      </c>
+      <c r="G67" s="515" t="s">
+        <v>650</v>
+      </c>
+      <c r="H67" s="492" t="s">
         <v>651</v>
       </c>
-      <c r="G67" s="515" t="s">
+      <c r="I67" s="512" t="s">
         <v>652</v>
-      </c>
-      <c r="H67" s="492" t="s">
-        <v>653</v>
-      </c>
-      <c r="I67" s="512" t="s">
-        <v>654</v>
       </c>
       <c r="J67" s="490"/>
       <c r="K67" s="494"/>
@@ -18874,13 +18868,13 @@
         <v>57</v>
       </c>
       <c r="B68" s="516" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C68" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D68" s="493" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E68" s="511">
         <v>115.92</v>
@@ -18892,10 +18886,10 @@
       <c r="H68" s="492"/>
       <c r="I68" s="512"/>
       <c r="J68" s="515" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="K68" s="494" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" customHeight="1">
@@ -18903,13 +18897,13 @@
         <v>58</v>
       </c>
       <c r="B69" s="516" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C69" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D69" s="493" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E69" s="511">
         <v>250</v>
@@ -18918,13 +18912,13 @@
         <v>625</v>
       </c>
       <c r="G69" s="515" t="s">
+        <v>701</v>
+      </c>
+      <c r="H69" s="492" t="s">
+        <v>702</v>
+      </c>
+      <c r="I69" s="512" t="s">
         <v>703</v>
-      </c>
-      <c r="H69" s="492" t="s">
-        <v>704</v>
-      </c>
-      <c r="I69" s="512" t="s">
-        <v>705</v>
       </c>
       <c r="J69" s="515"/>
       <c r="K69" s="494"/>
@@ -18934,13 +18928,13 @@
         <v>59</v>
       </c>
       <c r="B70" s="516" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C70" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D70" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E70" s="511">
         <v>95</v>
@@ -18952,10 +18946,10 @@
       <c r="H70" s="492"/>
       <c r="I70" s="512"/>
       <c r="J70" s="515" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K70" s="494" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="30" customHeight="1">
@@ -18963,13 +18957,13 @@
         <v>60</v>
       </c>
       <c r="B71" s="492" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C71" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D71" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E71" s="511">
         <v>63</v>
@@ -18981,10 +18975,10 @@
         <v>62001003330</v>
       </c>
       <c r="H71" s="512" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I71" s="492" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="J71" s="515"/>
       <c r="K71" s="494"/>
@@ -18994,13 +18988,13 @@
         <v>61</v>
       </c>
       <c r="B72" s="492" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C72" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D72" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E72" s="493">
         <v>289.39999999999998</v>
@@ -19012,10 +19006,10 @@
       <c r="H72" s="495"/>
       <c r="I72" s="496"/>
       <c r="J72" s="497" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="K72" s="494" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="45" customHeight="1">
@@ -19023,13 +19017,13 @@
         <v>62</v>
       </c>
       <c r="B73" s="492" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C73" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D73" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E73" s="493">
         <v>100.4</v>
@@ -19041,10 +19035,10 @@
         <v>27001007074</v>
       </c>
       <c r="H73" s="495" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I73" s="496" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="J73" s="497"/>
       <c r="K73" s="494"/>
@@ -19054,13 +19048,13 @@
         <v>63</v>
       </c>
       <c r="B74" s="492" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C74" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D74" s="493" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E74" s="493">
         <v>119.8</v>
@@ -19072,10 +19066,10 @@
       <c r="H74" s="495"/>
       <c r="I74" s="496"/>
       <c r="J74" s="497" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K74" s="494" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="75" customHeight="1">
@@ -19083,13 +19077,13 @@
         <v>64</v>
       </c>
       <c r="B75" s="492" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C75" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D75" s="493" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E75" s="493">
         <v>89</v>
@@ -19101,10 +19095,10 @@
         <v>61006012731</v>
       </c>
       <c r="H75" s="495" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I75" s="496" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="J75" s="497"/>
       <c r="K75" s="494"/>
@@ -19114,13 +19108,13 @@
         <v>65</v>
       </c>
       <c r="B76" s="492" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C76" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D76" s="493" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E76" s="493">
         <v>41.25</v>
@@ -19132,10 +19126,10 @@
         <v>60001129329</v>
       </c>
       <c r="H76" s="512" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I76" s="492" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J76" s="490"/>
       <c r="K76" s="494"/>
@@ -19145,13 +19139,13 @@
         <v>66</v>
       </c>
       <c r="B77" s="492" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C77" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D77" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E77" s="493">
         <v>185.6</v>
@@ -19160,13 +19154,13 @@
         <v>2840.88</v>
       </c>
       <c r="G77" s="515" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H77" s="495" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I77" s="496" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J77" s="517"/>
       <c r="K77" s="494"/>
@@ -19176,13 +19170,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="492" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C78" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D78" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E78" s="493">
         <v>138.80000000000001</v>
@@ -19191,13 +19185,13 @@
         <v>1000</v>
       </c>
       <c r="G78" s="515" t="s">
+        <v>930</v>
+      </c>
+      <c r="H78" s="495" t="s">
+        <v>931</v>
+      </c>
+      <c r="I78" s="496" t="s">
         <v>932</v>
-      </c>
-      <c r="H78" s="495" t="s">
-        <v>933</v>
-      </c>
-      <c r="I78" s="496" t="s">
-        <v>934</v>
       </c>
       <c r="J78" s="517"/>
       <c r="K78" s="494"/>
@@ -19207,13 +19201,13 @@
         <v>68</v>
       </c>
       <c r="B79" s="492" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C79" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D79" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E79" s="493">
         <v>202.81</v>
@@ -19228,7 +19222,7 @@
         <v>54001007223</v>
       </c>
       <c r="K79" s="494" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="45" customHeight="1">
@@ -19236,13 +19230,13 @@
         <v>69</v>
       </c>
       <c r="B80" s="492" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C80" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D80" s="493" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E80" s="493">
         <v>91</v>
@@ -19251,13 +19245,13 @@
         <v>1250</v>
       </c>
       <c r="G80" s="515" t="s">
+        <v>937</v>
+      </c>
+      <c r="H80" s="495" t="s">
+        <v>938</v>
+      </c>
+      <c r="I80" s="496" t="s">
         <v>939</v>
-      </c>
-      <c r="H80" s="495" t="s">
-        <v>940</v>
-      </c>
-      <c r="I80" s="496" t="s">
-        <v>941</v>
       </c>
       <c r="J80" s="517"/>
       <c r="K80" s="494"/>
@@ -19267,13 +19261,13 @@
         <v>70</v>
       </c>
       <c r="B81" s="492" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C81" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D81" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E81" s="493">
         <v>88.21</v>
@@ -19288,7 +19282,7 @@
         <v>61004018088</v>
       </c>
       <c r="K81" s="494" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="45" customHeight="1">
@@ -19296,13 +19290,13 @@
         <v>71</v>
       </c>
       <c r="B82" s="492" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C82" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D82" s="493" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E82" s="511">
         <v>72</v>
@@ -19314,10 +19308,10 @@
       <c r="H82" s="512"/>
       <c r="I82" s="492"/>
       <c r="J82" s="513" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K82" s="492" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="45" customHeight="1">
@@ -19325,13 +19319,13 @@
         <v>72</v>
       </c>
       <c r="B83" s="492" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C83" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D83" s="493" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E83" s="511">
         <v>120</v>
@@ -19343,10 +19337,10 @@
       <c r="H83" s="495"/>
       <c r="I83" s="496"/>
       <c r="J83" s="518" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="K83" s="492" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="45" customHeight="1">
@@ -19354,13 +19348,13 @@
         <v>73</v>
       </c>
       <c r="B84" s="492" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C84" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D84" s="493" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E84" s="511">
         <v>327.14999999999998</v>
@@ -19372,10 +19366,10 @@
       <c r="H84" s="495"/>
       <c r="I84" s="496"/>
       <c r="J84" s="518" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="K84" s="492" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="45" customHeight="1">
@@ -19383,13 +19377,13 @@
         <v>74</v>
       </c>
       <c r="B85" s="492" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C85" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D85" s="493" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E85" s="511">
         <v>183.25</v>
@@ -19401,10 +19395,10 @@
       <c r="H85" s="495"/>
       <c r="I85" s="496"/>
       <c r="J85" s="518" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="K85" s="492" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="45" customHeight="1">
@@ -19412,13 +19406,13 @@
         <v>75</v>
       </c>
       <c r="B86" s="492" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C86" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D86" s="493" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E86" s="511">
         <v>650</v>
@@ -19430,26 +19424,26 @@
       <c r="H86" s="495"/>
       <c r="I86" s="496"/>
       <c r="J86" s="518" t="s">
+        <v>954</v>
+      </c>
+      <c r="K86" s="492" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="45" customHeight="1">
+      <c r="A87" s="570">
+        <v>76</v>
+      </c>
+      <c r="B87" s="573" t="s">
         <v>956</v>
       </c>
-      <c r="K86" s="492" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="45" customHeight="1">
-      <c r="A87" s="564">
-        <v>76</v>
-      </c>
-      <c r="B87" s="567" t="s">
-        <v>958</v>
-      </c>
-      <c r="C87" s="569" t="s">
-        <v>655</v>
-      </c>
-      <c r="D87" s="569" t="s">
-        <v>944</v>
-      </c>
-      <c r="E87" s="575">
+      <c r="C87" s="575" t="s">
+        <v>653</v>
+      </c>
+      <c r="D87" s="575" t="s">
+        <v>942</v>
+      </c>
+      <c r="E87" s="567">
         <v>331.82</v>
       </c>
       <c r="F87" s="511">
@@ -19459,18 +19453,18 @@
       <c r="H87" s="495"/>
       <c r="I87" s="496"/>
       <c r="J87" s="518" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="K87" s="492" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="45" customHeight="1">
-      <c r="A88" s="565"/>
-      <c r="B88" s="568"/>
-      <c r="C88" s="570"/>
-      <c r="D88" s="570"/>
-      <c r="E88" s="576"/>
+      <c r="A88" s="571"/>
+      <c r="B88" s="574"/>
+      <c r="C88" s="576"/>
+      <c r="D88" s="576"/>
+      <c r="E88" s="568"/>
       <c r="F88" s="511">
         <v>2272.6999999999998</v>
       </c>
@@ -19478,10 +19472,10 @@
       <c r="H88" s="495"/>
       <c r="I88" s="496"/>
       <c r="J88" s="518" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="K88" s="492" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="45" customHeight="1">
@@ -19489,13 +19483,13 @@
         <v>77</v>
       </c>
       <c r="B89" s="492" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C89" s="493" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D89" s="493" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E89" s="511">
         <v>22.08</v>
@@ -19507,10 +19501,10 @@
       <c r="H89" s="495"/>
       <c r="I89" s="496"/>
       <c r="J89" s="518" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="K89" s="492" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="45" customHeight="1">
@@ -19518,13 +19512,13 @@
         <v>78</v>
       </c>
       <c r="B90" s="492" t="s">
+        <v>964</v>
+      </c>
+      <c r="C90" s="493" t="s">
+        <v>965</v>
+      </c>
+      <c r="D90" s="493" t="s">
         <v>966</v>
-      </c>
-      <c r="C90" s="493" t="s">
-        <v>967</v>
-      </c>
-      <c r="D90" s="493" t="s">
-        <v>968</v>
       </c>
       <c r="E90" s="511">
         <v>900</v>
@@ -19536,10 +19530,10 @@
       <c r="H90" s="495"/>
       <c r="I90" s="496"/>
       <c r="J90" s="518" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="K90" s="492" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="45" customHeight="1">
@@ -19547,13 +19541,13 @@
         <v>79</v>
       </c>
       <c r="B91" s="492" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C91" s="493" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D91" s="493" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E91" s="511">
         <v>355</v>
@@ -19565,10 +19559,10 @@
       <c r="H91" s="495"/>
       <c r="I91" s="496"/>
       <c r="J91" s="518" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="K91" s="492" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="45" customHeight="1">
@@ -19576,13 +19570,13 @@
         <v>80</v>
       </c>
       <c r="B92" s="492" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C92" s="493" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D92" s="493" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E92" s="511">
         <v>586</v>
@@ -19594,10 +19588,10 @@
       <c r="H92" s="495"/>
       <c r="I92" s="496"/>
       <c r="J92" s="518" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="K92" s="492" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="45" customHeight="1">
@@ -19659,8 +19653,8 @@
     <row r="97" spans="1:7" ht="15">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="563"/>
-      <c r="D97" s="563"/>
+      <c r="C97" s="569"/>
+      <c r="D97" s="569"/>
       <c r="F97" s="69"/>
       <c r="G97" s="72"/>
     </row>
@@ -19690,11 +19684,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E87:E88"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
@@ -19706,6 +19695,11 @@
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C87:C88"/>
     <mergeCell ref="D87:D88"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E87:E88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
@@ -19772,10 +19766,10 @@
       <c r="I2" s="136"/>
       <c r="J2" s="136"/>
       <c r="K2" s="142"/>
-      <c r="L2" s="571" t="s">
-        <v>981</v>
-      </c>
-      <c r="M2" s="572"/>
+      <c r="L2" s="563" t="s">
+        <v>979</v>
+      </c>
+      <c r="M2" s="564"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="15">
       <c r="A3" s="136"/>
@@ -19811,7 +19805,7 @@
     </row>
     <row r="5" spans="1:13" ht="15">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="221"/>
       <c r="C5" s="79"/>
@@ -20241,10 +20235,10 @@
       <c r="F2" s="136"/>
       <c r="G2" s="136"/>
       <c r="H2" s="142"/>
-      <c r="I2" s="571" t="s">
-        <v>981</v>
-      </c>
-      <c r="J2" s="572"/>
+      <c r="I2" s="563" t="s">
+        <v>979</v>
+      </c>
+      <c r="J2" s="564"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="15">
       <c r="A3" s="136"/>
@@ -20274,7 +20268,7 @@
     </row>
     <row r="5" spans="1:13" ht="15">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -20739,7 +20733,7 @@
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J2" s="548"/>
     </row>
@@ -20772,7 +20766,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="367"/>
       <c r="C5" s="367"/>
@@ -20844,13 +20838,13 @@
         <v>41759</v>
       </c>
       <c r="C9" s="520" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D9" s="521">
         <v>205283637</v>
       </c>
       <c r="E9" s="522" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F9" s="522">
         <v>84312.34</v>
@@ -20873,11 +20867,11 @@
         <v>41131</v>
       </c>
       <c r="C10" s="520" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D10" s="521"/>
       <c r="E10" s="522" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F10" s="522">
         <v>41437.199999999997</v>
@@ -20900,13 +20894,13 @@
         <v>41139</v>
       </c>
       <c r="C11" s="520" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D11" s="521">
         <v>205282905</v>
       </c>
       <c r="E11" s="524" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F11" s="522">
         <v>141390</v>
@@ -20929,13 +20923,13 @@
         <v>41084</v>
       </c>
       <c r="C12" s="520" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D12" s="521">
         <v>60001104537</v>
       </c>
       <c r="E12" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F12" s="525">
         <v>162.5</v>
@@ -20958,13 +20952,13 @@
         <v>41083</v>
       </c>
       <c r="C13" s="520" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D13" s="521">
         <v>16001002430</v>
       </c>
       <c r="E13" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F13" s="525">
         <v>100</v>
@@ -20987,13 +20981,13 @@
         <v>41083</v>
       </c>
       <c r="C14" s="520" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D14" s="521">
         <v>16201033680</v>
       </c>
       <c r="E14" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F14" s="525">
         <v>100</v>
@@ -21016,13 +21010,13 @@
         <v>41084</v>
       </c>
       <c r="C15" s="520" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D15" s="521">
         <v>61006053900</v>
       </c>
       <c r="E15" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F15" s="525">
         <v>162.5</v>
@@ -21045,13 +21039,13 @@
         <v>41083</v>
       </c>
       <c r="C16" s="520" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D16" s="521">
         <v>61008001136</v>
       </c>
       <c r="E16" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F16" s="525">
         <v>125</v>
@@ -21074,13 +21068,13 @@
         <v>41084</v>
       </c>
       <c r="C17" s="520" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D17" s="521">
         <v>61006068519</v>
       </c>
       <c r="E17" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F17" s="525">
         <v>162.5</v>
@@ -21103,13 +21097,13 @@
         <v>41083</v>
       </c>
       <c r="C18" s="520" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D18" s="521">
         <v>61008001937</v>
       </c>
       <c r="E18" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F18" s="525">
         <v>162.5</v>
@@ -21132,13 +21126,13 @@
         <v>41084</v>
       </c>
       <c r="C19" s="520" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D19" s="521">
         <v>61006047190</v>
       </c>
       <c r="E19" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F19" s="525">
         <v>162.5</v>
@@ -21161,13 +21155,13 @@
         <v>41083</v>
       </c>
       <c r="C20" s="520" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D20" s="521">
         <v>61006053166</v>
       </c>
       <c r="E20" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F20" s="525">
         <v>162.5</v>
@@ -21190,13 +21184,13 @@
         <v>41084</v>
       </c>
       <c r="C21" s="520" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D21" s="521" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E21" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F21" s="525">
         <v>125</v>
@@ -21219,13 +21213,13 @@
         <v>41084</v>
       </c>
       <c r="C22" s="520" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D22" s="521" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E22" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F22" s="525">
         <v>162.5</v>
@@ -21248,13 +21242,13 @@
         <v>41084</v>
       </c>
       <c r="C23" s="520" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D23" s="521" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E23" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F23" s="525">
         <v>162.5</v>
@@ -21277,13 +21271,13 @@
         <v>41083</v>
       </c>
       <c r="C24" s="520" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D24" s="521" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E24" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F24" s="525">
         <v>100</v>
@@ -21306,13 +21300,13 @@
         <v>41083</v>
       </c>
       <c r="C25" s="520" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D25" s="521" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E25" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F25" s="525">
         <v>162.5</v>
@@ -21335,13 +21329,13 @@
         <v>41085</v>
       </c>
       <c r="C26" s="520" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D26" s="521" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E26" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F26" s="525">
         <v>100</v>
@@ -21364,13 +21358,13 @@
         <v>41088</v>
       </c>
       <c r="C27" s="520" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D27" s="521" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E27" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F27" s="525">
         <v>100</v>
@@ -21393,13 +21387,13 @@
         <v>41083</v>
       </c>
       <c r="C28" s="520" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D28" s="521" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E28" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F28" s="525">
         <v>162.5</v>
@@ -21422,13 +21416,13 @@
         <v>41083</v>
       </c>
       <c r="C29" s="520" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D29" s="521" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E29" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F29" s="525">
         <v>125</v>
@@ -21451,13 +21445,13 @@
         <v>41083</v>
       </c>
       <c r="C30" s="520" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D30" s="521" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E30" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F30" s="525">
         <v>162.5</v>
@@ -21480,13 +21474,13 @@
         <v>41084</v>
       </c>
       <c r="C31" s="520" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D31" s="521" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E31" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F31" s="525">
         <v>162.5</v>
@@ -21509,13 +21503,13 @@
         <v>41084</v>
       </c>
       <c r="C32" s="520" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D32" s="521" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E32" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F32" s="525">
         <v>162.5</v>
@@ -21538,13 +21532,13 @@
         <v>41083</v>
       </c>
       <c r="C33" s="520" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D33" s="521" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E33" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F33" s="525">
         <v>162.5</v>
@@ -21567,13 +21561,13 @@
         <v>41083</v>
       </c>
       <c r="C34" s="520" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D34" s="521" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E34" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F34" s="525">
         <v>125</v>
@@ -21596,13 +21590,13 @@
         <v>41084</v>
       </c>
       <c r="C35" s="520" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D35" s="521" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E35" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F35" s="525">
         <v>125</v>
@@ -21625,13 +21619,13 @@
         <v>41083</v>
       </c>
       <c r="C36" s="520" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D36" s="521" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E36" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F36" s="525">
         <v>125</v>
@@ -21654,13 +21648,13 @@
         <v>41084</v>
       </c>
       <c r="C37" s="520" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D37" s="521" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E37" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F37" s="525">
         <v>125</v>
@@ -21683,13 +21677,13 @@
         <v>41089</v>
       </c>
       <c r="C38" s="520" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D38" s="521" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E38" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F38" s="525">
         <v>125</v>
@@ -21712,13 +21706,13 @@
         <v>41065</v>
       </c>
       <c r="C39" s="520" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D39" s="521" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E39" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F39" s="525">
         <v>100</v>
@@ -21741,13 +21735,13 @@
         <v>41065</v>
       </c>
       <c r="C40" s="520" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D40" s="521" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E40" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F40" s="525">
         <v>125</v>
@@ -21770,13 +21764,13 @@
         <v>41065</v>
       </c>
       <c r="C41" s="520" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D41" s="521" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E41" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F41" s="525">
         <v>162.5</v>
@@ -21799,13 +21793,13 @@
         <v>41065</v>
       </c>
       <c r="C42" s="520" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D42" s="521" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E42" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F42" s="525">
         <v>162.5</v>
@@ -21828,13 +21822,13 @@
         <v>41065</v>
       </c>
       <c r="C43" s="520" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D43" s="521" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E43" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F43" s="525">
         <v>162.5</v>
@@ -21857,13 +21851,13 @@
         <v>41065</v>
       </c>
       <c r="C44" s="520" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D44" s="521" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E44" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F44" s="525">
         <v>162.5</v>
@@ -21886,13 +21880,13 @@
         <v>41065</v>
       </c>
       <c r="C45" s="520" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D45" s="521" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E45" s="522" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F45" s="525">
         <v>125</v>
@@ -21915,13 +21909,13 @@
         <v>41122</v>
       </c>
       <c r="C46" s="520" t="s">
+        <v>777</v>
+      </c>
+      <c r="D46" s="521" t="s">
+        <v>778</v>
+      </c>
+      <c r="E46" s="522" t="s">
         <v>779</v>
-      </c>
-      <c r="D46" s="521" t="s">
-        <v>780</v>
-      </c>
-      <c r="E46" s="522" t="s">
-        <v>781</v>
       </c>
       <c r="F46" s="525">
         <v>250</v>
@@ -21944,13 +21938,13 @@
         <v>41122</v>
       </c>
       <c r="C47" s="520" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D47" s="521" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E47" s="522" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F47" s="525">
         <v>375</v>
@@ -21973,13 +21967,13 @@
         <v>41136</v>
       </c>
       <c r="C48" s="520" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D48" s="521" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E48" s="522" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F48" s="525">
         <v>3125</v>
@@ -22002,13 +21996,13 @@
         <v>41136</v>
       </c>
       <c r="C49" s="520" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D49" s="521" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E49" s="522" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F49" s="525">
         <v>500</v>
@@ -22031,13 +22025,13 @@
         <v>41136</v>
       </c>
       <c r="C50" s="520" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D50" s="521" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E50" s="522" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F50" s="525">
         <v>520.83000000000004</v>
@@ -22060,13 +22054,13 @@
         <v>41136</v>
       </c>
       <c r="C51" s="520" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D51" s="521" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E51" s="522" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F51" s="525">
         <v>1375</v>
@@ -22089,13 +22083,13 @@
         <v>41136</v>
       </c>
       <c r="C52" s="520" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D52" s="521" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E52" s="522" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F52" s="525">
         <v>1375</v>
@@ -22118,13 +22112,13 @@
         <v>41145</v>
       </c>
       <c r="C53" s="520" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D53" s="521">
         <v>404897215</v>
       </c>
       <c r="E53" s="522" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F53" s="522">
         <v>110</v>
@@ -22147,11 +22141,11 @@
         <v>41157</v>
       </c>
       <c r="C54" s="520" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D54" s="521"/>
       <c r="E54" s="522" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F54" s="522">
         <v>544069.96</v>
@@ -22174,13 +22168,13 @@
         <v>41136</v>
       </c>
       <c r="C55" s="520" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D55" s="521" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E55" s="522" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F55" s="522">
         <v>0.3</v>
@@ -22203,13 +22197,13 @@
         <v>41134</v>
       </c>
       <c r="C56" s="520" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D56" s="521" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E56" s="522" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F56" s="522">
         <v>1412.48</v>
@@ -22232,13 +22226,13 @@
         <v>41130</v>
       </c>
       <c r="C57" s="520" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D57" s="521" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E57" s="522" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F57" s="522">
         <v>541.53</v>
@@ -22261,13 +22255,13 @@
         <v>41182</v>
       </c>
       <c r="C58" s="520" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D58" s="521" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E58" s="522" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F58" s="522">
         <v>887.5</v>
@@ -22290,11 +22284,11 @@
         <v>41177</v>
       </c>
       <c r="C59" s="520" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D59" s="521"/>
       <c r="E59" s="522" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F59" s="522">
         <v>373676.21</v>
@@ -22317,13 +22311,13 @@
         <v>41172</v>
       </c>
       <c r="C60" s="520" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D60" s="521" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E60" s="522" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F60" s="522">
         <v>19950</v>
@@ -22346,13 +22340,13 @@
         <v>41170</v>
       </c>
       <c r="C61" s="520" t="s">
+        <v>807</v>
+      </c>
+      <c r="D61" s="521" t="s">
+        <v>808</v>
+      </c>
+      <c r="E61" s="522" t="s">
         <v>809</v>
-      </c>
-      <c r="D61" s="521" t="s">
-        <v>810</v>
-      </c>
-      <c r="E61" s="522" t="s">
-        <v>811</v>
       </c>
       <c r="F61" s="522">
         <v>625</v>
@@ -22375,13 +22369,13 @@
         <v>41176</v>
       </c>
       <c r="C62" s="520" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D62" s="521" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E62" s="522" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F62" s="522">
         <v>187.5</v>
@@ -22404,13 +22398,13 @@
         <v>41759</v>
       </c>
       <c r="C63" s="520" t="s">
+        <v>812</v>
+      </c>
+      <c r="D63" s="521" t="s">
+        <v>813</v>
+      </c>
+      <c r="E63" s="522" t="s">
         <v>814</v>
-      </c>
-      <c r="D63" s="521" t="s">
-        <v>815</v>
-      </c>
-      <c r="E63" s="522" t="s">
-        <v>816</v>
       </c>
       <c r="F63" s="529">
         <v>28327.84</v>
@@ -22433,13 +22427,13 @@
         <v>41182</v>
       </c>
       <c r="C64" s="520" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D64" s="521" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E64" s="522" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F64" s="522">
         <v>846.78</v>
@@ -22462,13 +22456,13 @@
         <v>41182</v>
       </c>
       <c r="C65" s="520" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D65" s="521" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E65" s="522" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F65" s="522">
         <v>2916.65</v>
@@ -22491,13 +22485,13 @@
         <v>41182</v>
       </c>
       <c r="C66" s="520" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D66" s="521" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E66" s="522" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F66" s="522">
         <v>500</v>
@@ -22520,13 +22514,13 @@
         <v>41182</v>
       </c>
       <c r="C67" s="520" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D67" s="521" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E67" s="522" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F67" s="522">
         <v>625</v>
@@ -22549,11 +22543,11 @@
         <v>41187</v>
       </c>
       <c r="C68" s="520" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D68" s="521"/>
       <c r="E68" s="521" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F68" s="522">
         <v>52478.12</v>
@@ -22576,13 +22570,13 @@
         <v>41153</v>
       </c>
       <c r="C69" s="530" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D69" s="531" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E69" s="522" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F69" s="532">
         <v>747.33</v>
@@ -22605,13 +22599,13 @@
         <v>41059</v>
       </c>
       <c r="C70" s="530" t="s">
+        <v>827</v>
+      </c>
+      <c r="D70" s="531" t="s">
+        <v>828</v>
+      </c>
+      <c r="E70" s="534" t="s">
         <v>829</v>
-      </c>
-      <c r="D70" s="531" t="s">
-        <v>830</v>
-      </c>
-      <c r="E70" s="534" t="s">
-        <v>831</v>
       </c>
       <c r="F70" s="532">
         <v>65</v>
@@ -22634,13 +22628,13 @@
         <v>41783</v>
       </c>
       <c r="C71" s="520" t="s">
+        <v>830</v>
+      </c>
+      <c r="D71" s="521" t="s">
+        <v>831</v>
+      </c>
+      <c r="E71" s="522" t="s">
         <v>832</v>
-      </c>
-      <c r="D71" s="521" t="s">
-        <v>833</v>
-      </c>
-      <c r="E71" s="522" t="s">
-        <v>834</v>
       </c>
       <c r="F71" s="532">
         <v>80104.399999999994</v>
@@ -22660,16 +22654,16 @@
         <v>64</v>
       </c>
       <c r="B72" s="535" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C72" s="520" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D72" s="520">
         <v>45001015655</v>
       </c>
       <c r="E72" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F72" s="536">
         <v>104.18</v>
@@ -22689,16 +22683,16 @@
         <v>65</v>
       </c>
       <c r="B73" s="519" t="s">
+        <v>836</v>
+      </c>
+      <c r="C73" s="520" t="s">
+        <v>837</v>
+      </c>
+      <c r="D73" s="521" t="s">
         <v>838</v>
       </c>
-      <c r="C73" s="520" t="s">
-        <v>839</v>
-      </c>
-      <c r="D73" s="521" t="s">
-        <v>840</v>
-      </c>
       <c r="E73" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F73" s="536">
         <v>0.35</v>
@@ -22718,16 +22712,16 @@
         <v>66</v>
       </c>
       <c r="B74" s="519" t="s">
+        <v>839</v>
+      </c>
+      <c r="C74" s="520" t="s">
+        <v>840</v>
+      </c>
+      <c r="D74" s="521" t="s">
         <v>841</v>
       </c>
-      <c r="C74" s="520" t="s">
-        <v>842</v>
-      </c>
-      <c r="D74" s="521" t="s">
-        <v>843</v>
-      </c>
       <c r="E74" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F74" s="536">
         <v>500</v>
@@ -22747,16 +22741,16 @@
         <v>67</v>
       </c>
       <c r="B75" s="519" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C75" s="520" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D75" s="521" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E75" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F75" s="536">
         <v>625</v>
@@ -22776,16 +22770,16 @@
         <v>68</v>
       </c>
       <c r="B76" s="519" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C76" s="520" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D76" s="521" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E76" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F76" s="536">
         <v>226.43</v>
@@ -22805,16 +22799,16 @@
         <v>69</v>
       </c>
       <c r="B77" s="519" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C77" s="520" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D77" s="521" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E77" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F77" s="536">
         <v>563</v>
@@ -22834,16 +22828,16 @@
         <v>70</v>
       </c>
       <c r="B78" s="519" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C78" s="520" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D78" s="521" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E78" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F78" s="536">
         <v>801.23</v>
@@ -22863,16 +22857,16 @@
         <v>71</v>
       </c>
       <c r="B79" s="519" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C79" s="520" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D79" s="521" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E79" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F79" s="536">
         <v>500</v>
@@ -22892,16 +22886,16 @@
         <v>72</v>
       </c>
       <c r="B80" s="519" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C80" s="520" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D80" s="521" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E80" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F80" s="536">
         <v>1600</v>
@@ -22921,16 +22915,16 @@
         <v>73</v>
       </c>
       <c r="B81" s="519" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C81" s="520" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D81" s="521">
         <v>61002014645</v>
       </c>
       <c r="E81" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F81" s="536">
         <v>522.54</v>
@@ -22950,16 +22944,16 @@
         <v>74</v>
       </c>
       <c r="B82" s="519" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C82" s="520" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D82" s="521" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E82" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F82" s="536">
         <v>873</v>
@@ -22979,16 +22973,16 @@
         <v>75</v>
       </c>
       <c r="B83" s="519" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C83" s="520" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D83" s="521" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E83" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F83" s="536">
         <v>870.9</v>
@@ -23008,16 +23002,16 @@
         <v>76</v>
       </c>
       <c r="B84" s="519" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C84" s="520" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D84" s="521" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E84" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F84" s="536">
         <v>500</v>
@@ -23037,16 +23031,16 @@
         <v>77</v>
       </c>
       <c r="B85" s="519" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C85" s="520" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D85" s="521" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E85" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F85" s="536">
         <v>200</v>
@@ -23069,13 +23063,13 @@
         <v>41823</v>
       </c>
       <c r="C86" s="537" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D86" s="538" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E86" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F86" s="522">
         <v>3200</v>
@@ -23098,13 +23092,13 @@
         <v>42426</v>
       </c>
       <c r="C87" s="537" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D87" s="538" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E87" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F87" s="522">
         <v>800</v>
@@ -23127,13 +23121,13 @@
         <v>42426</v>
       </c>
       <c r="C88" s="537" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D88" s="538" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E88" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F88" s="522">
         <v>500</v>
@@ -23156,13 +23150,13 @@
         <v>42426</v>
       </c>
       <c r="C89" s="537" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D89" s="538" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E89" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F89" s="522">
         <v>375</v>
@@ -23185,13 +23179,13 @@
         <v>42426</v>
       </c>
       <c r="C90" s="537" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D90" s="538" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E90" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F90" s="522">
         <v>300</v>
@@ -23214,13 +23208,13 @@
         <v>42426</v>
       </c>
       <c r="C91" s="537" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D91" s="538" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E91" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F91" s="522">
         <v>375</v>
@@ -23243,13 +23237,13 @@
         <v>42426</v>
       </c>
       <c r="C92" s="537" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D92" s="538" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E92" s="522" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F92" s="522">
         <v>625</v>
@@ -23427,7 +23421,7 @@
       <c r="K2" s="193"/>
       <c r="L2" s="193"/>
       <c r="M2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="N2" s="548"/>
     </row>
@@ -23467,7 +23461,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="198"/>
       <c r="C5" s="198"/>
@@ -27993,12 +27987,12 @@
       </c>
       <c r="B2" s="240"/>
       <c r="C2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D2" s="548"/>
       <c r="E2" s="113"/>
       <c r="J2" s="550" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="K2" s="551"/>
     </row>
@@ -28028,7 +28022,7 @@
     </row>
     <row r="5" spans="1:22" s="2" customFormat="1">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="242"/>
       <c r="C5" s="57"/>
@@ -28081,16 +28075,16 @@
         <v>67</v>
       </c>
       <c r="M8" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>878</v>
-      </c>
       <c r="V8" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="9" spans="1:22" s="7" customFormat="1">
@@ -28777,7 +28771,7 @@
         <v>240</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -29159,7 +29153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
@@ -29177,7 +29171,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="6" customFormat="1">
       <c r="A1" s="390" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B1" s="385"/>
       <c r="C1" s="549" t="s">
@@ -29188,11 +29182,11 @@
     </row>
     <row r="2" spans="1:34" s="6" customFormat="1">
       <c r="A2" s="390" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B2" s="385"/>
       <c r="C2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D2" s="548"/>
       <c r="E2" s="90"/>
@@ -29201,7 +29195,7 @@
     </row>
     <row r="3" spans="1:34" s="6" customFormat="1">
       <c r="A3" s="390" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B3" s="385"/>
       <c r="C3" s="386"/>
@@ -29245,7 +29239,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B7" s="393"/>
       <c r="C7" s="394"/>
@@ -29299,29 +29293,29 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="P10" s="547" t="s">
         <v>698</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="P10" s="547" t="s">
-        <v>700</v>
       </c>
       <c r="Q10" s="548"/>
       <c r="S10" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AH10" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="7" customFormat="1">
@@ -31177,7 +31171,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="87" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C38" s="422">
         <f>SUM(C39:C43)</f>
@@ -31697,7 +31691,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="87" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C48" s="422">
         <f>SUM(C49:C51)</f>
@@ -32646,7 +32640,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="238" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C65" s="402"/>
       <c r="D65" s="426">
@@ -32888,7 +32882,7 @@
         <v>2.5</v>
       </c>
       <c r="B70" s="404" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C70" s="405"/>
       <c r="D70" s="428">
@@ -33361,7 +33355,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1">
       <c r="A1" s="390" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B1" s="391"/>
       <c r="C1" s="549" t="s">
@@ -33376,7 +33370,7 @@
       </c>
       <c r="B2" s="391"/>
       <c r="C2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D2" s="548"/>
       <c r="E2" s="90"/>
@@ -33409,7 +33403,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B6" s="393"/>
       <c r="C6" s="394"/>
@@ -33513,7 +33507,7 @@
         <v>320</v>
       </c>
       <c r="B17" s="86" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C17" s="4">
         <v>67693.649999999994</v>
@@ -33580,7 +33574,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="409"/>
       <c r="B24" s="409" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C24" s="401">
         <f>SUM(C10:C23)</f>
@@ -33598,18 +33592,18 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="410" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="21" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="210" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -33617,7 +33611,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="210" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="195" customFormat="1" ht="12.75"/>
@@ -33712,7 +33706,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15">
       <c r="A1" s="390" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B1" s="390"/>
       <c r="C1" s="391"/>
@@ -33738,7 +33732,7 @@
       <c r="G2" s="386"/>
       <c r="H2" s="386"/>
       <c r="I2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J2" s="548"/>
     </row>
@@ -33769,7 +33763,7 @@
     </row>
     <row r="5" spans="1:10" ht="15">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="393"/>
       <c r="C5" s="393"/>
@@ -33839,16 +33833,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="389" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C9" s="389" t="s">
+        <v>673</v>
+      </c>
+      <c r="D9" s="387" t="s">
+        <v>674</v>
+      </c>
+      <c r="E9" s="97" t="s">
         <v>675</v>
-      </c>
-      <c r="D9" s="387" t="s">
-        <v>676</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>677</v>
       </c>
       <c r="F9" s="97" t="s">
         <v>335</v>
@@ -33871,16 +33865,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="389" t="s">
+        <v>676</v>
+      </c>
+      <c r="C10" s="389" t="s">
+        <v>677</v>
+      </c>
+      <c r="D10" s="387" t="s">
+        <v>679</v>
+      </c>
+      <c r="E10" s="97" t="s">
         <v>678</v>
-      </c>
-      <c r="C10" s="389" t="s">
-        <v>679</v>
-      </c>
-      <c r="D10" s="387" t="s">
-        <v>681</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>680</v>
       </c>
       <c r="F10" s="97" t="s">
         <v>335</v>
@@ -34047,7 +34041,7 @@
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="415" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B22" s="415"/>
       <c r="C22" s="413"/>
@@ -34188,10 +34182,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z88"/>
+  <dimension ref="A1:Z87"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A68" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34226,7 +34220,7 @@
       </c>
       <c r="B2" s="114"/>
       <c r="C2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D2" s="548"/>
       <c r="E2" s="151"/>
@@ -34257,7 +34251,7 @@
     </row>
     <row r="5" spans="1:26" s="2" customFormat="1">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="111"/>
       <c r="C5" s="57"/>
@@ -34307,26 +34301,26 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="547" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="J8" s="548"/>
       <c r="L8" s="78" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M8" s="78" t="s">
         <v>9</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="9" customFormat="1" ht="18">
@@ -34337,11 +34331,11 @@
         <v>57</v>
       </c>
       <c r="C9" s="81">
-        <f>SUM(C10,C13,C53,C56,C57,C58,C75)</f>
+        <f>SUM(C10,C13,C52,C55,C56,C57,C74)</f>
         <v>0</v>
       </c>
       <c r="D9" s="81">
-        <f>SUM(D10,D13,D53,D56,D57,D58,D64,D71,D72)</f>
+        <f>SUM(D10,D13,D52,D55,D56,D57,D63,D70,D71)</f>
         <v>0</v>
       </c>
       <c r="E9" s="153"/>
@@ -34354,51 +34348,51 @@
         <v>150469.96</v>
       </c>
       <c r="I9" s="81">
-        <f>SUM(I10,I13,I53,I56,I57,I58,I75)</f>
+        <f>SUM(I10,I13,I52,I55,I56,I57,I74)</f>
         <v>2300</v>
       </c>
       <c r="J9" s="81">
-        <f>SUM(J10,J13,J53,J56,J57,J58,J64,J71,J72)</f>
+        <f>SUM(J10,J13,J52,J55,J56,J57,J63,J70,J71)</f>
         <v>0</v>
       </c>
       <c r="L9" s="81">
-        <f>SUM(L10,L13,L53,L56,L57,L58,L75)</f>
+        <f>SUM(L10,L13,L52,L55,L56,L57,L74)</f>
         <v>0</v>
       </c>
       <c r="M9" s="81">
-        <f>SUM(M10,M13,M53,M56,M57,M58,M64,M71,M72)</f>
+        <f>SUM(M10,M13,M52,M55,M56,M57,M63,M70,M71)</f>
         <v>1975</v>
       </c>
       <c r="P9" s="81">
-        <f>SUM(P10,P13,P53,P56,P57,P58,P75)</f>
+        <f>SUM(P10,P13,P52,P55,P56,P57,P74)</f>
         <v>1899.1</v>
       </c>
       <c r="Q9" s="81">
-        <f>SUM(Q10,Q13,Q53,Q56,Q57,Q58,Q64,Q71,Q72)</f>
+        <f>SUM(Q10,Q13,Q52,Q55,Q56,Q57,Q63,Q70,Q71)</f>
         <v>171.6</v>
       </c>
       <c r="S9" s="81">
-        <f>SUM(S10,S13,S53,S56,S57,S58,S75)</f>
+        <f>SUM(S10,S13,S52,S55,S56,S57,S74)</f>
         <v>46997.65</v>
       </c>
       <c r="T9" s="81">
-        <f>SUM(T10,T13,T53,T56,T57,T58,T64,T71,T72)</f>
+        <f>SUM(T10,T13,T52,T55,T56,T57,T63,T70,T71)</f>
         <v>46073.13</v>
       </c>
       <c r="V9" s="81">
-        <f>SUM(V10,V13,V53,V56,V57,V58,V75)</f>
+        <f>SUM(V10,V13,V52,V55,V56,V57,V74)</f>
         <v>93609.2</v>
       </c>
       <c r="W9" s="81">
-        <f>SUM(W10,W13,W53,W56,W57,W58,W64,W71,W72)</f>
+        <f>SUM(W10,W13,W52,W55,W56,W57,W63,W70,W71)</f>
         <v>62463.83</v>
       </c>
       <c r="Y9" s="81">
-        <f>SUM(Y10,Y13,Y53,Y56,Y57,Y58,Y75)</f>
+        <f>SUM(Y10,Y13,Y52,Y55,Y56,Y57,Y74)</f>
         <v>10471.61</v>
       </c>
       <c r="Z9" s="81">
-        <f>SUM(Z10,Z13,Z53,Z56,Z57,Z58,Z64,Z71,Z72)</f>
+        <f>SUM(Z10,Z13,Z52,Z55,Z56,Z57,Z63,Z70,Z71)</f>
         <v>41761.4</v>
       </c>
     </row>
@@ -34419,11 +34413,11 @@
       </c>
       <c r="E10" s="153"/>
       <c r="G10" s="21">
-        <f t="shared" ref="G10:G73" si="0">P:P+S:S+V:V+Y:Y</f>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H10" s="21">
-        <f t="shared" ref="H10:H73" si="1">Q:Q+T:T+W:W+Z:Z</f>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I10" s="83">
@@ -34488,11 +34482,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="153"/>
       <c r="G11" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H11" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I11" s="32">
@@ -34531,11 +34525,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="151"/>
       <c r="G12" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H12" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I12" s="32"/>
@@ -34559,68 +34553,68 @@
         <v>60</v>
       </c>
       <c r="C13" s="83">
-        <f>SUM(C14,C17,C29:C32,C35,C36,C43,C44,C45,C46,C47,C51,C52)</f>
+        <f>SUM(C14,C17,C29:C32,C35,C36,C42,C43,C44,C45,C46,C50,C51)</f>
         <v>0</v>
       </c>
       <c r="D13" s="83">
-        <f>SUM(D14,D17,D29:D32,D35,D36,D43,D44,D45,D46,D47,D51,D52)</f>
+        <f>SUM(D14,D17,D29:D32,D35,D36,D42,D43,D44,D45,D46,D50,D51)</f>
         <v>0</v>
       </c>
       <c r="E13" s="151"/>
       <c r="G13" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>107671.06</v>
       </c>
       <c r="H13" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>105163.45999999999</v>
       </c>
       <c r="I13" s="83">
-        <f>SUM(I14,I17,I29:I32,I35,I36,I43,I44,I45,I46,I47,I51,I52)</f>
+        <f>SUM(I14,I17,I29:I32,I35,I36,I42,I43,I44,I45,I46,I50,I51)</f>
         <v>2300</v>
       </c>
       <c r="J13" s="83">
-        <f>SUM(J14,J17,J29:J32,J35,J36,J43,J44,J45,J46,J47,J51,J52)</f>
+        <f>SUM(J14,J17,J29:J32,J35,J36,J42,J43,J44,J45,J46,J50,J51)</f>
         <v>0</v>
       </c>
       <c r="L13" s="83">
-        <f>SUM(L14,L17,L29:L32,L35,L36,L43,L44,L45,L46,L47,L51,L52)</f>
+        <f>SUM(L14,L17,L29:L32,L35,L36,L42,L43,L44,L45,L46,L50,L51)</f>
         <v>0</v>
       </c>
       <c r="M13" s="83">
-        <f>SUM(M14,M17,M29:M32,M35,M36,M43,M44,M45,M46,M47,M51,M52)</f>
+        <f>SUM(M14,M17,M29:M32,M35,M36,M42,M43,M44,M45,M46,M50,M51)</f>
         <v>1975</v>
       </c>
       <c r="P13" s="83">
-        <f>SUM(P14,P17,P29:P32,P35,P36,P43,P44,P45,P46,P47,P51,P52)</f>
+        <f>SUM(P14,P17,P29:P32,P35,P36,P42,P43,P44,P45,P46,P50,P51)</f>
         <v>1899.1</v>
       </c>
       <c r="Q13" s="83">
-        <f>SUM(Q14,Q17,Q29:Q32,Q35,Q36,Q43,Q44,Q45,Q46,Q47,Q51,Q52)</f>
+        <f>SUM(Q14,Q17,Q29:Q32,Q35,Q36,Q42,Q43,Q44,Q45,Q46,Q50,Q51)</f>
         <v>171.6</v>
       </c>
       <c r="S13" s="83">
-        <f>SUM(S14,S17,S29:S32,S35,S36,S43,S44,S45,S46,S47,S51,S52)</f>
+        <f>SUM(S14,S17,S29:S32,S35,S36,S42,S43,S44,S45,S46,S50,S51)</f>
         <v>9941.1500000000015</v>
       </c>
       <c r="T13" s="83">
-        <f>SUM(T14,T17,T29:T32,T35,T36,T43,T44,T45,T46,T47,T51,T52)</f>
+        <f>SUM(T14,T17,T29:T32,T35,T36,T42,T43,T44,T45,T46,T50,T51)</f>
         <v>20911.899999999998</v>
       </c>
       <c r="V13" s="83">
-        <f>SUM(V14,V17,V29:V32,V35,V36,V43,V44,V45,V46,V47,V51,V52)</f>
+        <f>SUM(V14,V17,V29:V32,V35,V36,V42,V43,V44,V45,V46,V50,V51)</f>
         <v>85359.2</v>
       </c>
       <c r="W13" s="83">
-        <f>SUM(W14,W17,W29:W32,W35,W36,W43,W44,W45,W46,W47,W51,W52)</f>
+        <f>SUM(W14,W17,W29:W32,W35,W36,W42,W43,W44,W45,W46,W50,W51)</f>
         <v>50568.560000000005</v>
       </c>
       <c r="Y13" s="83">
-        <f>SUM(Y14,Y17,Y29:Y32,Y35,Y36,Y43,Y44,Y45,Y46,Y47,Y51,Y52)</f>
+        <f>SUM(Y14,Y17,Y29:Y32,Y35,Y36,Y42,Y43,Y44,Y45,Y46,Y50,Y51)</f>
         <v>10471.61</v>
       </c>
       <c r="Z13" s="83">
-        <f>SUM(Z14,Z17,Z29:Z32,Z35,Z36,Z43,Z44,Z45,Z46,Z47,Z51,Z52)</f>
+        <f>SUM(Z14,Z17,Z29:Z32,Z35,Z36,Z42,Z43,Z44,Z45,Z46,Z50,Z51)</f>
         <v>33511.4</v>
       </c>
     </row>
@@ -34641,11 +34635,11 @@
       </c>
       <c r="E14" s="151"/>
       <c r="G14" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H14" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I14" s="82">
@@ -34708,11 +34702,11 @@
       <c r="D15" s="35"/>
       <c r="E15" s="151"/>
       <c r="G15" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H15" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I15" s="34"/>
@@ -34739,11 +34733,11 @@
       <c r="D16" s="35"/>
       <c r="E16" s="151"/>
       <c r="G16" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H16" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I16" s="34"/>
@@ -34776,11 +34770,11 @@
       </c>
       <c r="E17" s="151"/>
       <c r="G17" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>571.68999999999994</v>
       </c>
       <c r="H17" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>444.18999999999994</v>
       </c>
       <c r="I17" s="82">
@@ -34837,17 +34831,17 @@
         <v>12</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="151"/>
       <c r="G18" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>127.5</v>
       </c>
       <c r="H18" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I18" s="36"/>
@@ -34876,11 +34870,11 @@
       <c r="D19" s="38"/>
       <c r="E19" s="151"/>
       <c r="G19" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H19" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I19" s="36"/>
@@ -34907,11 +34901,11 @@
       <c r="D20" s="39"/>
       <c r="E20" s="151"/>
       <c r="G20" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H20" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I20" s="36"/>
@@ -34938,11 +34932,11 @@
       <c r="D21" s="458"/>
       <c r="E21" s="151"/>
       <c r="G21" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>203.68</v>
       </c>
       <c r="H21" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>203.68</v>
       </c>
       <c r="I21" s="36">
@@ -34989,11 +34983,11 @@
       <c r="D22" s="39"/>
       <c r="E22" s="151"/>
       <c r="G22" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H22" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I22" s="36"/>
@@ -35026,11 +35020,11 @@
       </c>
       <c r="E23" s="151"/>
       <c r="G23" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>240.51</v>
       </c>
       <c r="H23" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>240.51</v>
       </c>
       <c r="I23" s="117">
@@ -35093,11 +35087,11 @@
       <c r="D24" s="460"/>
       <c r="E24" s="151"/>
       <c r="G24" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>148.27000000000001</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>148.27000000000001</v>
       </c>
       <c r="I24" s="36">
@@ -35144,11 +35138,11 @@
       <c r="D25" s="460"/>
       <c r="E25" s="151"/>
       <c r="G25" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>92.24</v>
       </c>
       <c r="H25" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>92.24</v>
       </c>
       <c r="I25" s="36">
@@ -35199,11 +35193,11 @@
       </c>
       <c r="E26" s="151"/>
       <c r="G26" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H26" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I26" s="36">
@@ -35258,11 +35252,11 @@
       </c>
       <c r="E27" s="151"/>
       <c r="G27" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H27" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I27" s="36">
@@ -35315,11 +35309,11 @@
       </c>
       <c r="E28" s="151"/>
       <c r="G28" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H28" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I28" s="36"/>
@@ -35358,11 +35352,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="151"/>
       <c r="G29" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H29" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I29" s="32"/>
@@ -35389,11 +35383,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="151"/>
       <c r="G30" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H30" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I30" s="32"/>
@@ -35420,11 +35414,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="151"/>
       <c r="G31" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H31" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I31" s="32"/>
@@ -35457,11 +35451,11 @@
       </c>
       <c r="E32" s="151"/>
       <c r="G32" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H32" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I32" s="82">
@@ -35524,11 +35518,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="151"/>
       <c r="G33" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H33" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I33" s="32"/>
@@ -35555,11 +35549,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="151"/>
       <c r="G34" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H34" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I34" s="32"/>
@@ -35590,11 +35584,11 @@
       </c>
       <c r="E35" s="151"/>
       <c r="G35" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H35" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I35" s="32">
@@ -35642,68 +35636,68 @@
         <v>342</v>
       </c>
       <c r="C36" s="82">
-        <f>SUM(C37:C42)</f>
+        <f>SUM(C37:C41)</f>
         <v>0</v>
       </c>
       <c r="D36" s="82">
-        <f>SUM(D37:D42)</f>
+        <f>SUM(D37:D41)</f>
         <v>0</v>
       </c>
       <c r="E36" s="151"/>
       <c r="G36" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>22199.629999999997</v>
       </c>
       <c r="H36" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>22199.629999999997</v>
       </c>
       <c r="I36" s="82">
-        <f>SUM(I37:I42)</f>
+        <f>SUM(I37:I41)</f>
         <v>0</v>
       </c>
       <c r="J36" s="82">
-        <f>SUM(J37:J42)</f>
+        <f>SUM(J37:J41)</f>
         <v>0</v>
       </c>
       <c r="L36" s="82">
-        <f>SUM(L37:L42)</f>
+        <f>SUM(L37:L41)</f>
         <v>0</v>
       </c>
       <c r="M36" s="82">
-        <f>SUM(M37:M42)</f>
+        <f>SUM(M37:M41)</f>
         <v>0</v>
       </c>
       <c r="P36" s="82">
-        <f>SUM(P37:P42)</f>
+        <f>SUM(P37:P41)</f>
         <v>0</v>
       </c>
       <c r="Q36" s="82">
-        <f>SUM(Q37:Q42)</f>
+        <f>SUM(Q37:Q41)</f>
         <v>0</v>
       </c>
       <c r="S36" s="82">
-        <f>SUM(S37:S42)</f>
+        <f>SUM(S37:S41)</f>
         <v>2103.17</v>
       </c>
       <c r="T36" s="82">
-        <f>SUM(T37:T42)</f>
+        <f>SUM(T37:T41)</f>
         <v>16559.73</v>
       </c>
       <c r="V36" s="82">
-        <f>SUM(V37:V42)</f>
+        <f>SUM(V37:V41)</f>
         <v>18296.46</v>
       </c>
       <c r="W36" s="82">
-        <f>SUM(W37:W42)</f>
+        <f>SUM(W37:W41)</f>
         <v>5639.9</v>
       </c>
       <c r="Y36" s="82">
-        <f>SUM(Y37:Y42)</f>
+        <f>SUM(Y37:Y41)</f>
         <v>1800</v>
       </c>
       <c r="Z36" s="82">
-        <f>SUM(Z37:Z42)</f>
+        <f>SUM(Z37:Z41)</f>
         <v>0</v>
       </c>
     </row>
@@ -35718,11 +35712,11 @@
       <c r="D37" s="32"/>
       <c r="E37" s="151"/>
       <c r="G37" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H37" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I37" s="32"/>
@@ -35749,11 +35743,11 @@
       <c r="D38" s="32"/>
       <c r="E38" s="151"/>
       <c r="G38" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>238</v>
       </c>
       <c r="H38" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>238</v>
       </c>
       <c r="I38" s="32"/>
@@ -35784,11 +35778,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="151"/>
       <c r="G39" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H39" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I39" s="32"/>
@@ -35815,11 +35809,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="151"/>
       <c r="G40" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H40" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I40" s="32"/>
@@ -35840,7 +35834,7 @@
         <v>349</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>437</v>
+        <v>345</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" s="33">
@@ -35848,11 +35842,11 @@
       </c>
       <c r="E41" s="151"/>
       <c r="G41" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>21961.629999999997</v>
       </c>
       <c r="H41" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>21961.629999999997</v>
       </c>
       <c r="I41" s="32"/>
@@ -35879,22 +35873,22 @@
       </c>
       <c r="Z41" s="33"/>
     </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>345</v>
+    <row r="42" spans="1:26" ht="30">
+      <c r="A42" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="C42" s="32"/>
       <c r="D42" s="33"/>
       <c r="E42" s="151"/>
       <c r="G42" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H42" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I42" s="32"/>
@@ -35910,23 +35904,27 @@
       <c r="Y42" s="32"/>
       <c r="Z42" s="33"/>
     </row>
-    <row r="43" spans="1:26" ht="30">
+    <row r="43" spans="1:26">
       <c r="A43" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
+        <v>24</v>
+      </c>
+      <c r="C43" s="32">
+        <v>0</v>
+      </c>
+      <c r="D43" s="33">
+        <v>0</v>
+      </c>
       <c r="E43" s="151"/>
       <c r="G43" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>P:P+S:S+V:V+Y:Y</f>
+        <v>950</v>
       </c>
       <c r="H43" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>950</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="33"/>
@@ -35934,34 +35932,40 @@
       <c r="M43" s="33"/>
       <c r="P43" s="32"/>
       <c r="Q43" s="33"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="33"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="33"/>
+      <c r="S43" s="32">
+        <v>75</v>
+      </c>
+      <c r="T43" s="33">
+        <v>75</v>
+      </c>
+      <c r="V43" s="32">
+        <v>875</v>
+      </c>
+      <c r="W43" s="33">
+        <v>875</v>
+      </c>
       <c r="Y43" s="32"/>
       <c r="Z43" s="33"/>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="32">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C44" s="32"/>
       <c r="D44" s="33">
         <v>0</v>
       </c>
       <c r="E44" s="151"/>
       <c r="G44" s="21">
-        <f t="shared" si="0"/>
-        <v>950</v>
+        <f>P:P+S:S+V:V+Y:Y</f>
+        <v>5000</v>
       </c>
       <c r="H44" s="21">
-        <f t="shared" si="1"/>
-        <v>950</v>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>5000</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="33"/>
@@ -35969,261 +35973,255 @@
       <c r="M44" s="33"/>
       <c r="P44" s="32"/>
       <c r="Q44" s="33"/>
-      <c r="S44" s="32">
-        <v>75</v>
-      </c>
-      <c r="T44" s="33">
-        <v>75</v>
-      </c>
-      <c r="V44" s="32">
-        <v>875</v>
-      </c>
-      <c r="W44" s="33">
-        <v>875</v>
-      </c>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="33"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="33"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="33"/>
+      <c r="Y44" s="32">
+        <v>5000</v>
+      </c>
+      <c r="Z44" s="33">
+        <v>5000</v>
+      </c>
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C45" s="32"/>
-      <c r="D45" s="33">
-        <v>0</v>
-      </c>
+      <c r="D45" s="33"/>
       <c r="E45" s="151"/>
       <c r="G45" s="21">
-        <f t="shared" si="0"/>
-        <v>5000</v>
+        <f>P:P+S:S+V:V+Y:Y</f>
+        <v>0</v>
       </c>
       <c r="H45" s="21">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="33"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="33"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="33"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="33"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="32">
+        <v>0</v>
+      </c>
+      <c r="J45" s="33">
+        <v>0</v>
+      </c>
+      <c r="L45" s="32">
+        <v>0</v>
+      </c>
+      <c r="M45" s="33">
+        <v>0</v>
+      </c>
+      <c r="P45" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="33">
+        <v>0</v>
+      </c>
+      <c r="S45" s="32">
+        <v>0</v>
+      </c>
+      <c r="T45" s="33">
+        <v>0</v>
+      </c>
+      <c r="V45" s="32">
+        <v>0</v>
+      </c>
+      <c r="W45" s="33">
+        <v>0</v>
+      </c>
       <c r="Y45" s="32">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="33">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
+        <v>286</v>
+      </c>
+      <c r="C46" s="82">
+        <f>SUM(C47:C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="82">
+        <f>SUM(D47:D49)</f>
+        <v>0</v>
+      </c>
       <c r="E46" s="151"/>
       <c r="G46" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>P:P+S:S+V:V+Y:Y</f>
+        <v>13256.34</v>
       </c>
       <c r="H46" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="32">
-        <v>0</v>
-      </c>
-      <c r="J46" s="33">
-        <v>0</v>
-      </c>
-      <c r="L46" s="32">
-        <v>0</v>
-      </c>
-      <c r="M46" s="33">
-        <v>0</v>
-      </c>
-      <c r="P46" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="33">
-        <v>0</v>
-      </c>
-      <c r="S46" s="32">
-        <v>0</v>
-      </c>
-      <c r="T46" s="33">
-        <v>0</v>
-      </c>
-      <c r="V46" s="32">
-        <v>0</v>
-      </c>
-      <c r="W46" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="33">
-        <v>0</v>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>10956.34</v>
+      </c>
+      <c r="I46" s="82">
+        <f>SUM(I47:I49)</f>
+        <v>325</v>
+      </c>
+      <c r="J46" s="82">
+        <f>SUM(J47:J49)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="82">
+        <f>SUM(L47:L49)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="82">
+        <f>SUM(M47:M49)</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="82">
+        <f>SUM(P47:P49)</f>
+        <v>1600</v>
+      </c>
+      <c r="Q46" s="82">
+        <f>SUM(Q47:Q49)</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="82">
+        <f>SUM(S47:S49)</f>
+        <v>1785.71</v>
+      </c>
+      <c r="T46" s="82">
+        <f>SUM(T47:T49)</f>
+        <v>800</v>
+      </c>
+      <c r="V46" s="82">
+        <f>SUM(V47:V49)</f>
+        <v>6199.02</v>
+      </c>
+      <c r="W46" s="82">
+        <f>SUM(W47:W49)</f>
+        <v>8761.34</v>
+      </c>
+      <c r="Y46" s="82">
+        <f>SUM(Y47:Y49)</f>
+        <v>3671.61</v>
+      </c>
+      <c r="Z46" s="82">
+        <f>SUM(Z47:Z49)</f>
+        <v>1395</v>
       </c>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="C47" s="82">
-        <f>SUM(C48:C50)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="82">
-        <f>SUM(D48:D50)</f>
-        <v>0</v>
-      </c>
+      <c r="A47" s="96" t="s">
+        <v>354</v>
+      </c>
+      <c r="B47" s="96" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="151"/>
       <c r="G47" s="21">
-        <f t="shared" si="0"/>
-        <v>13256.34</v>
+        <f>P:P+S:S+V:V+Y:Y</f>
+        <v>10529.84</v>
       </c>
       <c r="H47" s="21">
-        <f t="shared" si="1"/>
-        <v>10956.34</v>
-      </c>
-      <c r="I47" s="82">
-        <f>SUM(I48:I50)</f>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>8229.84</v>
+      </c>
+      <c r="I47" s="32">
         <v>325</v>
       </c>
-      <c r="J47" s="82">
-        <f>SUM(J48:J50)</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="82">
-        <f>SUM(L48:L50)</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="82">
-        <f>SUM(M48:M50)</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="82">
-        <f>SUM(P48:P50)</f>
+      <c r="J47" s="33">
+        <v>0</v>
+      </c>
+      <c r="L47" s="32">
+        <v>0</v>
+      </c>
+      <c r="M47" s="33">
+        <v>0</v>
+      </c>
+      <c r="O47" s="462"/>
+      <c r="P47" s="32">
         <v>1600</v>
       </c>
-      <c r="Q47" s="82">
-        <f>SUM(Q48:Q50)</f>
-        <v>0</v>
-      </c>
-      <c r="S47" s="82">
-        <f>SUM(S48:S50)</f>
+      <c r="Q47" s="33">
+        <v>0</v>
+      </c>
+      <c r="S47" s="32">
         <v>1785.71</v>
       </c>
-      <c r="T47" s="82">
-        <f>SUM(T48:T50)</f>
+      <c r="T47" s="33">
         <v>800</v>
       </c>
-      <c r="V47" s="82">
-        <f>SUM(V48:V50)</f>
-        <v>6199.02</v>
-      </c>
-      <c r="W47" s="82">
-        <f>SUM(W48:W50)</f>
-        <v>8761.34</v>
-      </c>
-      <c r="Y47" s="82">
-        <f>SUM(Y48:Y50)</f>
+      <c r="V47" s="32">
+        <v>3472.52</v>
+      </c>
+      <c r="W47" s="33">
+        <f>4950+1084.84</f>
+        <v>6034.84</v>
+      </c>
+      <c r="Y47" s="32">
         <v>3671.61</v>
       </c>
-      <c r="Z47" s="82">
-        <f>SUM(Z48:Z50)</f>
+      <c r="Z47" s="33">
+        <f>500+895</f>
         <v>1395</v>
       </c>
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="96" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C48" s="32"/>
       <c r="D48" s="33"/>
       <c r="E48" s="151"/>
       <c r="G48" s="21">
-        <f t="shared" si="0"/>
-        <v>10529.84</v>
+        <f>P:P+S:S+V:V+Y:Y</f>
+        <v>2726.5</v>
       </c>
       <c r="H48" s="21">
-        <f t="shared" si="1"/>
-        <v>8229.84</v>
-      </c>
-      <c r="I48" s="32">
-        <v>325</v>
-      </c>
-      <c r="J48" s="33">
-        <v>0</v>
-      </c>
-      <c r="L48" s="32">
-        <v>0</v>
-      </c>
-      <c r="M48" s="33">
-        <v>0</v>
-      </c>
-      <c r="O48" s="462"/>
-      <c r="P48" s="32">
-        <v>1600</v>
-      </c>
-      <c r="Q48" s="33">
-        <v>0</v>
-      </c>
-      <c r="S48" s="32">
-        <v>1785.71</v>
-      </c>
-      <c r="T48" s="33">
-        <v>800</v>
-      </c>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>2726.5</v>
+      </c>
+      <c r="I48" s="32"/>
+      <c r="J48" s="33"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="33"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="33"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="33"/>
       <c r="V48" s="32">
-        <v>3472.52</v>
+        <v>2726.5</v>
       </c>
       <c r="W48" s="33">
-        <f>4950+1084.84</f>
-        <v>6034.84</v>
-      </c>
-      <c r="Y48" s="32">
-        <v>3671.61</v>
-      </c>
-      <c r="Z48" s="33">
-        <f>500+895</f>
-        <v>1395</v>
-      </c>
+        <v>2726.5</v>
+      </c>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="33"/>
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="96" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C49" s="32"/>
       <c r="D49" s="33"/>
       <c r="E49" s="151"/>
       <c r="G49" s="21">
-        <f t="shared" si="0"/>
-        <v>2726.5</v>
+        <f>P:P+S:S+V:V+Y:Y</f>
+        <v>0</v>
       </c>
       <c r="H49" s="21">
-        <f t="shared" si="1"/>
-        <v>2726.5</v>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>0</v>
       </c>
       <c r="I49" s="32"/>
       <c r="J49" s="33"/>
@@ -36233,31 +36231,27 @@
       <c r="Q49" s="33"/>
       <c r="S49" s="32"/>
       <c r="T49" s="33"/>
-      <c r="V49" s="32">
-        <v>2726.5</v>
-      </c>
-      <c r="W49" s="33">
-        <v>2726.5</v>
-      </c>
+      <c r="V49" s="32"/>
+      <c r="W49" s="33"/>
       <c r="Y49" s="32"/>
       <c r="Z49" s="33"/>
     </row>
-    <row r="50" spans="1:26">
-      <c r="A50" s="96" t="s">
-        <v>358</v>
-      </c>
-      <c r="B50" s="96" t="s">
-        <v>359</v>
+    <row r="50" spans="1:26" ht="26.25" customHeight="1">
+      <c r="A50" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="C50" s="32"/>
       <c r="D50" s="33"/>
       <c r="E50" s="151"/>
       <c r="G50" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H50" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I50" s="32"/>
@@ -36273,183 +36267,195 @@
       <c r="Y50" s="32"/>
       <c r="Z50" s="33"/>
     </row>
-    <row r="51" spans="1:26" ht="26.25" customHeight="1">
+    <row r="51" spans="1:26">
       <c r="A51" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="32"/>
+        <v>6</v>
+      </c>
+      <c r="C51" s="32">
+        <v>0</v>
+      </c>
       <c r="D51" s="33"/>
       <c r="E51" s="151"/>
       <c r="G51" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>P:P+S:S+V:V+Y:Y</f>
+        <v>65693.399999999994</v>
       </c>
       <c r="H51" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="32"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>65613.3</v>
+      </c>
+      <c r="I51" s="32">
+        <v>1975</v>
+      </c>
       <c r="J51" s="33"/>
       <c r="L51" s="32"/>
-      <c r="M51" s="33"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="33"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="33"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="33"/>
+      <c r="M51" s="33">
+        <f>1125+850</f>
+        <v>1975</v>
+      </c>
+      <c r="P51" s="32">
+        <v>171.6</v>
+      </c>
+      <c r="Q51" s="33">
+        <v>171.6</v>
+      </c>
+      <c r="S51" s="32">
+        <f>360.6+713.33+600+50+198.9+1422.27+2500</f>
+        <v>5845.1</v>
+      </c>
+      <c r="T51" s="33">
+        <v>3345</v>
+      </c>
+      <c r="V51" s="32">
+        <f>9375+500+1250+670+961.4+315+6000.3+2700+2000+15680+1200+3125+650+15250</f>
+        <v>59676.7</v>
+      </c>
+      <c r="W51" s="33">
+        <f>7475+2000+15130+6000.3+4375</f>
+        <v>34980.300000000003</v>
+      </c>
       <c r="Y51" s="32"/>
-      <c r="Z51" s="33"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="32">
-        <v>0</v>
-      </c>
-      <c r="D52" s="33"/>
+      <c r="Z51" s="33">
+        <f>5000+1946.4+5000+15150+20</f>
+        <v>27116.400000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="30">
+      <c r="A52" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="B52" s="86" t="s">
+        <v>386</v>
+      </c>
+      <c r="C52" s="83">
+        <f>SUM(C53:C54)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="83">
+        <f>SUM(D53:D54)</f>
+        <v>0</v>
+      </c>
       <c r="E52" s="151"/>
       <c r="G52" s="21">
-        <f t="shared" si="0"/>
-        <v>65693.399999999994</v>
+        <f>P:P+S:S+V:V+Y:Y</f>
+        <v>45306.5</v>
       </c>
       <c r="H52" s="21">
-        <f t="shared" si="1"/>
-        <v>65613.3</v>
-      </c>
-      <c r="I52" s="32">
-        <v>1975</v>
-      </c>
-      <c r="J52" s="33"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="33">
-        <f>1125+850</f>
-        <v>1975</v>
-      </c>
-      <c r="P52" s="32">
-        <v>171.6</v>
-      </c>
-      <c r="Q52" s="33">
-        <v>171.6</v>
-      </c>
-      <c r="S52" s="32">
-        <f>360.6+713.33+600+50+198.9+1422.27+2500</f>
-        <v>5845.1</v>
-      </c>
-      <c r="T52" s="33">
-        <v>3345</v>
-      </c>
-      <c r="V52" s="32">
-        <f>9375+500+1250+670+961.4+315+6000.3+2700+2000+15680+1200+3125+650+15250</f>
-        <v>59676.7</v>
-      </c>
-      <c r="W52" s="33">
-        <f>7475+2000+15130+6000.3+4375</f>
-        <v>34980.300000000003</v>
-      </c>
-      <c r="Y52" s="32"/>
-      <c r="Z52" s="33">
-        <f>5000+1946.4+5000+15150+20</f>
-        <v>27116.400000000001</v>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>45306.5</v>
+      </c>
+      <c r="I52" s="83">
+        <f>SUM(I53:I54)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="83">
+        <f>SUM(J53:J54)</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="83">
+        <f>SUM(L53:L54)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="83">
+        <f>SUM(M53:M54)</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="83">
+        <f>SUM(P53:P54)</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="83">
+        <f>SUM(Q53:Q54)</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="83">
+        <f>SUM(S53:S54)</f>
+        <v>37056.5</v>
+      </c>
+      <c r="T52" s="83">
+        <f>SUM(T53:T54)</f>
+        <v>25161.23</v>
+      </c>
+      <c r="V52" s="83">
+        <f>SUM(V53:V54)</f>
+        <v>8250</v>
+      </c>
+      <c r="W52" s="83">
+        <f>SUM(W53:W54)</f>
+        <v>11895.27</v>
+      </c>
+      <c r="Y52" s="83">
+        <f>SUM(Y53:Y54)</f>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="83">
+        <f>SUM(Z53:Z54)</f>
+        <v>8250</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="30">
-      <c r="A53" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="B53" s="86" t="s">
-        <v>386</v>
-      </c>
-      <c r="C53" s="83">
-        <f>SUM(C54:C55)</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="83">
-        <f>SUM(D54:D55)</f>
-        <v>0</v>
-      </c>
+      <c r="A53" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="151"/>
       <c r="G53" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>45306.5</v>
       </c>
       <c r="H53" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>45306.5</v>
       </c>
-      <c r="I53" s="83">
-        <f>SUM(I54:I55)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="83">
-        <f>SUM(J54:J55)</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="83">
-        <f>SUM(L54:L55)</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="83">
-        <f>SUM(M54:M55)</f>
-        <v>0</v>
-      </c>
-      <c r="P53" s="83">
-        <f>SUM(P54:P55)</f>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="83">
-        <f>SUM(Q54:Q55)</f>
-        <v>0</v>
-      </c>
-      <c r="S53" s="83">
-        <f>SUM(S54:S55)</f>
+      <c r="I53" s="32"/>
+      <c r="J53" s="33"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="33"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="33"/>
+      <c r="S53" s="32">
         <v>37056.5</v>
       </c>
-      <c r="T53" s="83">
-        <f>SUM(T54:T55)</f>
+      <c r="T53" s="33">
         <v>25161.23</v>
       </c>
-      <c r="V53" s="83">
-        <f>SUM(V54:V55)</f>
+      <c r="V53" s="32">
+        <f>2750+5500</f>
         <v>8250</v>
       </c>
-      <c r="W53" s="83">
-        <f>SUM(W54:W55)</f>
+      <c r="W53" s="33">
+        <f>11895.27</f>
         <v>11895.27</v>
       </c>
-      <c r="Y53" s="83">
-        <f>SUM(Y54:Y55)</f>
-        <v>0</v>
-      </c>
-      <c r="Z53" s="83">
-        <f>SUM(Z54:Z55)</f>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="33">
         <v>8250</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="30">
+    <row r="54" spans="1:26">
       <c r="A54" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="32"/>
       <c r="D54" s="33"/>
       <c r="E54" s="151"/>
       <c r="G54" s="21">
-        <f t="shared" si="0"/>
-        <v>45306.5</v>
+        <f>P:P+S:S+V:V+Y:Y</f>
+        <v>0</v>
       </c>
       <c r="H54" s="21">
-        <f t="shared" si="1"/>
-        <v>45306.5</v>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>0</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="33"/>
@@ -36457,41 +36463,29 @@
       <c r="M54" s="33"/>
       <c r="P54" s="32"/>
       <c r="Q54" s="33"/>
-      <c r="S54" s="32">
-        <v>37056.5</v>
-      </c>
-      <c r="T54" s="33">
-        <v>25161.23</v>
-      </c>
-      <c r="V54" s="32">
-        <f>2750+5500</f>
-        <v>8250</v>
-      </c>
-      <c r="W54" s="33">
-        <f>11895.27</f>
-        <v>11895.27</v>
-      </c>
+      <c r="S54" s="32"/>
+      <c r="T54" s="33"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="33"/>
       <c r="Y54" s="32"/>
-      <c r="Z54" s="33">
-        <v>8250</v>
-      </c>
+      <c r="Z54" s="33"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>47</v>
+      <c r="A55" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>388</v>
       </c>
       <c r="C55" s="32"/>
       <c r="D55" s="33"/>
       <c r="E55" s="151"/>
       <c r="G55" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H55" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I55" s="32"/>
@@ -36509,155 +36503,155 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
+        <v>7</v>
+      </c>
+      <c r="C56" s="36"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="151"/>
       <c r="G56" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H56" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="32"/>
-      <c r="J56" s="33"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="33"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="33"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="33"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="33"/>
-      <c r="Y56" s="32"/>
-      <c r="Z56" s="33"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="36"/>
+      <c r="J56" s="39"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="39"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="39"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="39"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="39"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="39"/>
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="39"/>
+        <v>1.6</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="83">
+        <f>SUM(C58:C62)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="83">
+        <f>SUM(D58:D62)</f>
+        <v>0</v>
+      </c>
       <c r="E57" s="151"/>
       <c r="G57" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H57" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="36"/>
-      <c r="J57" s="39"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="39"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="39"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="39"/>
-      <c r="V57" s="36"/>
-      <c r="W57" s="39"/>
-      <c r="Y57" s="36"/>
-      <c r="Z57" s="39"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="83">
+        <f>SUM(I58:I62)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="83">
+        <f>SUM(J58:J62)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="83">
+        <f>SUM(L58:L62)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="83">
+        <f>SUM(M58:M62)</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="83">
+        <f>SUM(P58:P62)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="83">
+        <f>SUM(Q58:Q62)</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="83">
+        <f>SUM(S58:S62)</f>
+        <v>0</v>
+      </c>
+      <c r="T57" s="83">
+        <f>SUM(T58:T62)</f>
+        <v>0</v>
+      </c>
+      <c r="V57" s="83">
+        <f>SUM(V58:V62)</f>
+        <v>0</v>
+      </c>
+      <c r="W57" s="83">
+        <f>SUM(W58:W62)</f>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="83">
+        <f>SUM(Y58:Y62)</f>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="83">
+        <f>SUM(Z58:Z62)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="83">
-        <f>SUM(C59:C63)</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="83">
-        <f>SUM(D59:D63)</f>
-        <v>0</v>
-      </c>
+      <c r="A58" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="36"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="151"/>
       <c r="G58" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H58" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="83">
-        <f>SUM(I59:I63)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="83">
-        <f>SUM(J59:J63)</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="83">
-        <f>SUM(L59:L63)</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="83">
-        <f>SUM(M59:M63)</f>
-        <v>0</v>
-      </c>
-      <c r="P58" s="83">
-        <f>SUM(P59:P63)</f>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="83">
-        <f>SUM(Q59:Q63)</f>
-        <v>0</v>
-      </c>
-      <c r="S58" s="83">
-        <f>SUM(S59:S63)</f>
-        <v>0</v>
-      </c>
-      <c r="T58" s="83">
-        <f>SUM(T59:T63)</f>
-        <v>0</v>
-      </c>
-      <c r="V58" s="83">
-        <f>SUM(V59:V63)</f>
-        <v>0</v>
-      </c>
-      <c r="W58" s="83">
-        <f>SUM(W59:W63)</f>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="83">
-        <f>SUM(Y59:Y63)</f>
-        <v>0</v>
-      </c>
-      <c r="Z58" s="83">
-        <f>SUM(Z59:Z63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="36"/>
+      <c r="J58" s="39"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="39"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="39"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="39"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="39"/>
+      <c r="Y58" s="36"/>
+      <c r="Z58" s="39"/>
+    </row>
+    <row r="59" spans="1:26" ht="30">
       <c r="A59" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C59" s="36"/>
       <c r="D59" s="39"/>
       <c r="E59" s="151"/>
       <c r="G59" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H59" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I59" s="36"/>
@@ -36673,229 +36667,229 @@
       <c r="Y59" s="36"/>
       <c r="Z59" s="39"/>
     </row>
-    <row r="60" spans="1:26" ht="30">
+    <row r="60" spans="1:26">
       <c r="A60" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="36"/>
+        <v>53</v>
+      </c>
+      <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="151"/>
       <c r="G60" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H60" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="36"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="39"/>
       <c r="J60" s="39"/>
-      <c r="L60" s="36"/>
+      <c r="L60" s="39"/>
       <c r="M60" s="39"/>
-      <c r="P60" s="36"/>
+      <c r="P60" s="39"/>
       <c r="Q60" s="39"/>
-      <c r="S60" s="36"/>
+      <c r="S60" s="39"/>
       <c r="T60" s="39"/>
-      <c r="V60" s="36"/>
+      <c r="V60" s="39"/>
       <c r="W60" s="39"/>
-      <c r="Y60" s="36"/>
+      <c r="Y60" s="39"/>
       <c r="Z60" s="39"/>
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="39"/>
+        <v>27</v>
+      </c>
+      <c r="C61" s="36"/>
       <c r="D61" s="39"/>
       <c r="E61" s="151"/>
       <c r="G61" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H61" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="39"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="36"/>
       <c r="J61" s="39"/>
-      <c r="L61" s="39"/>
+      <c r="L61" s="36"/>
       <c r="M61" s="39"/>
-      <c r="P61" s="39"/>
+      <c r="P61" s="36"/>
       <c r="Q61" s="39"/>
-      <c r="S61" s="39"/>
+      <c r="S61" s="36"/>
       <c r="T61" s="39"/>
-      <c r="V61" s="39"/>
+      <c r="V61" s="36"/>
       <c r="W61" s="39"/>
-      <c r="Y61" s="39"/>
+      <c r="Y61" s="36"/>
       <c r="Z61" s="39"/>
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>27</v>
+        <v>325</v>
+      </c>
+      <c r="B62" s="215" t="s">
+        <v>326</v>
       </c>
       <c r="C62" s="36"/>
-      <c r="D62" s="39"/>
+      <c r="D62" s="216"/>
       <c r="E62" s="151"/>
       <c r="G62" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H62" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I62" s="36"/>
-      <c r="J62" s="39"/>
+      <c r="J62" s="216"/>
       <c r="L62" s="36"/>
-      <c r="M62" s="39"/>
+      <c r="M62" s="216"/>
       <c r="P62" s="36"/>
-      <c r="Q62" s="39"/>
+      <c r="Q62" s="216"/>
       <c r="S62" s="36"/>
-      <c r="T62" s="39"/>
+      <c r="T62" s="216"/>
       <c r="V62" s="36"/>
-      <c r="W62" s="39"/>
+      <c r="W62" s="216"/>
       <c r="Y62" s="36"/>
-      <c r="Z62" s="39"/>
+      <c r="Z62" s="216"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="B63" s="215" t="s">
-        <v>326</v>
-      </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="216"/>
+      <c r="A63" s="13">
+        <v>2</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="267"/>
+      <c r="D63" s="118">
+        <f>SUM(D64:D69)</f>
+        <v>0</v>
+      </c>
       <c r="E63" s="151"/>
       <c r="G63" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H63" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="36"/>
-      <c r="J63" s="216"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="216"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="216"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="216"/>
-      <c r="V63" s="36"/>
-      <c r="W63" s="216"/>
-      <c r="Y63" s="36"/>
-      <c r="Z63" s="216"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="267"/>
+      <c r="J63" s="118">
+        <f>SUM(J64:J69)</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="267"/>
+      <c r="M63" s="118">
+        <f>SUM(M64:M69)</f>
+        <v>0</v>
+      </c>
+      <c r="P63" s="267"/>
+      <c r="Q63" s="118">
+        <f>SUM(Q64:Q69)</f>
+        <v>0</v>
+      </c>
+      <c r="S63" s="267"/>
+      <c r="T63" s="118">
+        <f>SUM(T64:T69)</f>
+        <v>0</v>
+      </c>
+      <c r="V63" s="267"/>
+      <c r="W63" s="118">
+        <f>SUM(W64:W69)</f>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="267"/>
+      <c r="Z63" s="118">
+        <f>SUM(Z64:Z69)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="13">
-        <v>2</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>95</v>
+      <c r="A64" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>89</v>
       </c>
       <c r="C64" s="267"/>
-      <c r="D64" s="118">
-        <f>SUM(D65:D70)</f>
-        <v>0</v>
-      </c>
+      <c r="D64" s="40"/>
       <c r="E64" s="151"/>
       <c r="G64" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H64" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I64" s="267"/>
-      <c r="J64" s="118">
-        <f>SUM(J65:J70)</f>
-        <v>0</v>
-      </c>
+      <c r="J64" s="40"/>
       <c r="L64" s="267"/>
-      <c r="M64" s="118">
-        <f>SUM(M65:M70)</f>
-        <v>0</v>
-      </c>
+      <c r="M64" s="40"/>
       <c r="P64" s="267"/>
-      <c r="Q64" s="118">
-        <f>SUM(Q65:Q70)</f>
-        <v>0</v>
-      </c>
+      <c r="Q64" s="40"/>
       <c r="S64" s="267"/>
-      <c r="T64" s="118">
-        <f>SUM(T65:T70)</f>
-        <v>0</v>
-      </c>
+      <c r="T64" s="40"/>
       <c r="V64" s="267"/>
-      <c r="W64" s="118">
-        <f>SUM(W65:W70)</f>
-        <v>0</v>
-      </c>
+      <c r="W64" s="40"/>
       <c r="Y64" s="267"/>
-      <c r="Z64" s="118">
-        <f>SUM(Z65:Z70)</f>
-        <v>0</v>
-      </c>
+      <c r="Z64" s="40"/>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="15">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="267"/>
-      <c r="D65" s="40"/>
+        <v>93</v>
+      </c>
+      <c r="C65" s="269"/>
+      <c r="D65" s="41"/>
       <c r="E65" s="151"/>
       <c r="G65" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H65" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="267"/>
-      <c r="J65" s="40"/>
-      <c r="L65" s="267"/>
-      <c r="M65" s="40"/>
-      <c r="P65" s="267"/>
-      <c r="Q65" s="40"/>
-      <c r="S65" s="267"/>
-      <c r="T65" s="40"/>
-      <c r="V65" s="267"/>
-      <c r="W65" s="40"/>
-      <c r="Y65" s="267"/>
-      <c r="Z65" s="40"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="269"/>
+      <c r="J65" s="41"/>
+      <c r="L65" s="269"/>
+      <c r="M65" s="41"/>
+      <c r="P65" s="269"/>
+      <c r="Q65" s="41"/>
+      <c r="S65" s="269"/>
+      <c r="T65" s="41"/>
+      <c r="V65" s="269"/>
+      <c r="W65" s="41"/>
+      <c r="Y65" s="269"/>
+      <c r="Z65" s="41"/>
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="15">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="269"/>
       <c r="D66" s="41"/>
       <c r="E66" s="151"/>
       <c r="G66" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H66" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I66" s="269"/>
@@ -36913,20 +36907,20 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="15">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C67" s="269"/>
       <c r="D67" s="41"/>
       <c r="E67" s="151"/>
       <c r="G67" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H67" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I67" s="269"/>
@@ -36944,20 +36938,20 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="15">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C68" s="269"/>
       <c r="D68" s="41"/>
       <c r="E68" s="151"/>
       <c r="G68" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H68" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I68" s="269"/>
@@ -36975,20 +36969,20 @@
     </row>
     <row r="69" spans="1:26">
       <c r="A69" s="15">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69" s="269"/>
       <c r="D69" s="41"/>
       <c r="E69" s="151"/>
       <c r="G69" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H69" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I69" s="269"/>
@@ -37004,157 +36998,157 @@
       <c r="Y69" s="269"/>
       <c r="Z69" s="41"/>
     </row>
-    <row r="70" spans="1:26">
-      <c r="A70" s="15">
-        <v>2.6</v>
-      </c>
-      <c r="B70" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="269"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="151"/>
+    <row r="70" spans="1:26" s="2" customFormat="1">
+      <c r="A70" s="13">
+        <v>3</v>
+      </c>
+      <c r="B70" s="265" t="s">
+        <v>418</v>
+      </c>
+      <c r="C70" s="268"/>
+      <c r="D70" s="266"/>
+      <c r="E70" s="105"/>
       <c r="G70" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H70" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="269"/>
-      <c r="J70" s="41"/>
-      <c r="L70" s="269"/>
-      <c r="M70" s="41"/>
-      <c r="P70" s="269"/>
-      <c r="Q70" s="41"/>
-      <c r="S70" s="269"/>
-      <c r="T70" s="41"/>
-      <c r="V70" s="269"/>
-      <c r="W70" s="41"/>
-      <c r="Y70" s="269"/>
-      <c r="Z70" s="41"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="268"/>
+      <c r="J70" s="266"/>
+      <c r="L70" s="268"/>
+      <c r="M70" s="266"/>
+      <c r="P70" s="268"/>
+      <c r="Q70" s="266"/>
+      <c r="S70" s="268"/>
+      <c r="T70" s="266"/>
+      <c r="V70" s="268"/>
+      <c r="W70" s="266"/>
+      <c r="Y70" s="268"/>
+      <c r="Z70" s="266"/>
     </row>
     <row r="71" spans="1:26" s="2" customFormat="1">
       <c r="A71" s="13">
-        <v>3</v>
-      </c>
-      <c r="B71" s="265" t="s">
-        <v>418</v>
-      </c>
-      <c r="C71" s="268"/>
-      <c r="D71" s="266"/>
+        <v>4</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" s="268">
+        <f>SUM(C72:C73)</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="84">
+        <f>SUM(D72:D73)</f>
+        <v>0</v>
+      </c>
       <c r="E71" s="105"/>
       <c r="G71" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H71" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="268"/>
-      <c r="J71" s="266"/>
-      <c r="L71" s="268"/>
-      <c r="M71" s="266"/>
-      <c r="P71" s="268"/>
-      <c r="Q71" s="266"/>
-      <c r="S71" s="268"/>
-      <c r="T71" s="266"/>
-      <c r="V71" s="268"/>
-      <c r="W71" s="266"/>
-      <c r="Y71" s="268"/>
-      <c r="Z71" s="266"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="268">
+        <f>SUM(I72:I73)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="84">
+        <f>SUM(J72:J73)</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="268">
+        <f>SUM(L72:L73)</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="84">
+        <f>SUM(M72:M73)</f>
+        <v>0</v>
+      </c>
+      <c r="P71" s="268">
+        <f>SUM(P72:P73)</f>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="84">
+        <f>SUM(Q72:Q73)</f>
+        <v>0</v>
+      </c>
+      <c r="S71" s="268">
+        <f>SUM(S72:S73)</f>
+        <v>0</v>
+      </c>
+      <c r="T71" s="84">
+        <f>SUM(T72:T73)</f>
+        <v>0</v>
+      </c>
+      <c r="V71" s="268">
+        <f>SUM(V72:V73)</f>
+        <v>0</v>
+      </c>
+      <c r="W71" s="84">
+        <f>SUM(W72:W73)</f>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="268">
+        <f>SUM(Y72:Y73)</f>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="84">
+        <f>SUM(Z72:Z73)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:26" s="2" customFormat="1">
-      <c r="A72" s="13">
-        <v>4</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C72" s="268">
-        <f>SUM(C73:C74)</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="84">
-        <f>SUM(D73:D74)</f>
-        <v>0</v>
-      </c>
+      <c r="A72" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
       <c r="E72" s="105"/>
       <c r="G72" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H72" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="268">
-        <f>SUM(I73:I74)</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="84">
-        <f>SUM(J73:J74)</f>
-        <v>0</v>
-      </c>
-      <c r="L72" s="268">
-        <f>SUM(L73:L74)</f>
-        <v>0</v>
-      </c>
-      <c r="M72" s="84">
-        <f>SUM(M73:M74)</f>
-        <v>0</v>
-      </c>
-      <c r="P72" s="268">
-        <f>SUM(P73:P74)</f>
-        <v>0</v>
-      </c>
-      <c r="Q72" s="84">
-        <f>SUM(Q73:Q74)</f>
-        <v>0</v>
-      </c>
-      <c r="S72" s="268">
-        <f>SUM(S73:S74)</f>
-        <v>0</v>
-      </c>
-      <c r="T72" s="84">
-        <f>SUM(T73:T74)</f>
-        <v>0</v>
-      </c>
-      <c r="V72" s="268">
-        <f>SUM(V73:V74)</f>
-        <v>0</v>
-      </c>
-      <c r="W72" s="84">
-        <f>SUM(W73:W74)</f>
-        <v>0</v>
-      </c>
-      <c r="Y72" s="268">
-        <f>SUM(Y73:Y74)</f>
-        <v>0</v>
-      </c>
-      <c r="Z72" s="84">
-        <f>SUM(Z73:Z74)</f>
-        <v>0</v>
-      </c>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
     </row>
     <row r="73" spans="1:26" s="2" customFormat="1">
       <c r="A73" s="15">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="105"/>
       <c r="G73" s="21">
-        <f t="shared" si="0"/>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H73" s="21">
-        <f t="shared" si="1"/>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I73" s="8"/>
@@ -37171,96 +37165,74 @@
       <c r="Z73" s="8"/>
     </row>
     <row r="74" spans="1:26" s="2" customFormat="1">
-      <c r="A74" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>243</v>
+      <c r="A74" s="13">
+        <v>5</v>
+      </c>
+      <c r="B74" s="264" t="s">
+        <v>269</v>
       </c>
       <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+      <c r="D74" s="84"/>
       <c r="E74" s="105"/>
       <c r="G74" s="21">
-        <f t="shared" ref="G74:G75" si="2">P:P+S:S+V:V+Y:Y</f>
+        <f>P:P+S:S+V:V+Y:Y</f>
         <v>0</v>
       </c>
       <c r="H74" s="21">
-        <f t="shared" ref="H74:H75" si="3">Q:Q+T:T+W:W+Z:Z</f>
+        <f>Q:Q+T:T+W:W+Z:Z</f>
         <v>0</v>
       </c>
       <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
+      <c r="J74" s="84"/>
       <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
+      <c r="M74" s="84"/>
       <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
+      <c r="Q74" s="84"/>
       <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
+      <c r="W74" s="84"/>
       <c r="Y74" s="8"/>
-      <c r="Z74" s="8"/>
+      <c r="Z74" s="84"/>
     </row>
     <row r="75" spans="1:26" s="2" customFormat="1">
-      <c r="A75" s="13">
-        <v>5</v>
-      </c>
-      <c r="B75" s="264" t="s">
-        <v>269</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="84"/>
+      <c r="A75" s="275"/>
+      <c r="B75" s="275"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
       <c r="E75" s="105"/>
-      <c r="G75" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="84"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="84"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="84"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="84"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="84"/>
     </row>
     <row r="76" spans="1:26" s="2" customFormat="1">
-      <c r="A76" s="275"/>
-      <c r="B76" s="275"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+      <c r="A76" s="553" t="s">
+        <v>437</v>
+      </c>
+      <c r="B76" s="553"/>
+      <c r="C76" s="553"/>
+      <c r="D76" s="553"/>
       <c r="E76" s="105"/>
     </row>
     <row r="77" spans="1:26" s="2" customFormat="1">
-      <c r="A77" s="553" t="s">
-        <v>439</v>
-      </c>
-      <c r="B77" s="553"/>
-      <c r="C77" s="553"/>
-      <c r="D77" s="553"/>
+      <c r="A77" s="275"/>
+      <c r="B77" s="275"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
       <c r="E77" s="105"/>
     </row>
-    <row r="78" spans="1:26" s="2" customFormat="1">
-      <c r="A78" s="275"/>
-      <c r="B78" s="275"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="105"/>
-    </row>
-    <row r="79" spans="1:26" s="22" customFormat="1" ht="12.75"/>
+    <row r="78" spans="1:26" s="22" customFormat="1" ht="12.75"/>
+    <row r="79" spans="1:26" s="2" customFormat="1">
+      <c r="A79" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" s="5"/>
+    </row>
     <row r="80" spans="1:26" s="2" customFormat="1">
-      <c r="A80" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80" s="5"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
     </row>
     <row r="81" spans="1:10" s="2" customFormat="1">
+      <c r="D81" s="12"/>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
@@ -37269,6 +37241,10 @@
       <c r="J81"/>
     </row>
     <row r="82" spans="1:10" s="2" customFormat="1">
+      <c r="A82"/>
+      <c r="B82" s="42" t="s">
+        <v>438</v>
+      </c>
       <c r="D82" s="12"/>
       <c r="E82"/>
       <c r="F82"/>
@@ -37279,10 +37255,11 @@
     </row>
     <row r="83" spans="1:10" s="2" customFormat="1">
       <c r="A83"/>
-      <c r="B83" s="42" t="s">
-        <v>440</v>
-      </c>
-      <c r="D83" s="12"/>
+      <c r="B83" s="552" t="s">
+        <v>439</v>
+      </c>
+      <c r="C83" s="552"/>
+      <c r="D83" s="552"/>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
@@ -37290,43 +37267,29 @@
       <c r="I83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" s="2" customFormat="1">
-      <c r="A84"/>
-      <c r="B84" s="552" t="s">
+    <row r="84" spans="1:10" customFormat="1" ht="12.75">
+      <c r="B84" s="64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="2" customFormat="1">
+      <c r="A85" s="11"/>
+      <c r="B85" s="552" t="s">
         <v>441</v>
       </c>
-      <c r="C84" s="552"/>
-      <c r="D84" s="552"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-    </row>
-    <row r="85" spans="1:10" customFormat="1" ht="12.75">
-      <c r="B85" s="64" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="2" customFormat="1">
-      <c r="A86" s="11"/>
-      <c r="B86" s="552" t="s">
-        <v>443</v>
-      </c>
-      <c r="C86" s="552"/>
-      <c r="D86" s="552"/>
-    </row>
+      <c r="C85" s="552"/>
+      <c r="D85" s="552"/>
+    </row>
+    <row r="86" spans="1:10" s="22" customFormat="1" ht="12.75"/>
     <row r="87" spans="1:10" s="22" customFormat="1" ht="12.75"/>
-    <row r="88" spans="1:10" s="22" customFormat="1" ht="12.75"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B85:D85"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="B83:D83"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="1" right="1" top="0.42" bottom="0.43" header="0.17" footer="0.17"/>
@@ -37371,7 +37334,7 @@
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D2" s="548"/>
       <c r="E2" s="90"/>
@@ -37404,7 +37367,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B6" s="79"/>
       <c r="C6" s="80"/>
@@ -37525,7 +37488,7 @@
     </row>
     <row r="19" spans="1:8" s="10" customFormat="1" ht="30">
       <c r="A19" s="97" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B19" s="86"/>
       <c r="C19" s="4"/>
@@ -37534,7 +37497,7 @@
     </row>
     <row r="20" spans="1:8" s="10" customFormat="1" ht="30">
       <c r="A20" s="97" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B20" s="86"/>
       <c r="C20" s="4"/>
@@ -37543,7 +37506,7 @@
     </row>
     <row r="21" spans="1:8" s="10" customFormat="1" ht="30">
       <c r="A21" s="97" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B21" s="86"/>
       <c r="C21" s="4"/>
@@ -37552,7 +37515,7 @@
     </row>
     <row r="22" spans="1:8" s="10" customFormat="1" ht="30">
       <c r="A22" s="97" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B22" s="86"/>
       <c r="C22" s="4"/>
@@ -37561,7 +37524,7 @@
     </row>
     <row r="23" spans="1:8" s="10" customFormat="1" ht="30">
       <c r="A23" s="97" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="4"/>
@@ -37570,7 +37533,7 @@
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="30">
       <c r="A24" s="87" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B24" s="471"/>
       <c r="C24" s="4"/>
@@ -37731,7 +37694,7 @@
       <c r="G2" s="226"/>
       <c r="H2" s="226"/>
       <c r="I2" s="547" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J2" s="548"/>
     </row>
@@ -37762,7 +37725,7 @@
     </row>
     <row r="5" spans="1:10" ht="15">
       <c r="A5" s="110" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
